--- a/FC_figure_bank/ProteinLossAccDF.xlsx
+++ b/FC_figure_bank/ProteinLossAccDF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02112351602679768</v>
+        <v>0.1724077781869305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02096990472637117</v>
+        <v>0.1722113490104675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07485849917838233</v>
+        <v>0.09785932721712538</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07549120992761117</v>
+        <v>0.09900990099009901</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02095689799983141</v>
+        <v>0.1691616806719038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02041561552323401</v>
+        <v>0.1662126438958304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07485849917838233</v>
+        <v>0.1585845347313237</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07549120992761117</v>
+        <v>0.2821782178217822</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02022673239454974</v>
+        <v>0.1634854082432058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0195495072985068</v>
+        <v>0.1635330000094005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1471608544823809</v>
+        <v>0.3294014853647881</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1654601861427094</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01948734031730267</v>
+        <v>0.1608597640362051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01893256115727127</v>
+        <v>0.1621025821992329</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1993792222019354</v>
+        <v>0.382699868938401</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2295760082730093</v>
+        <v>0.4133663366336633</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0191237123163287</v>
+        <v>0.1591373831033707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01878487347858027</v>
+        <v>0.1599073048148836</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2148986671535512</v>
+        <v>0.4613368283093054</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2440537745604964</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0189988067655196</v>
+        <v>0.1568879675534036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01873970788437873</v>
+        <v>0.1574832626751491</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2209238634288844</v>
+        <v>0.4578418523372652</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2150982419855222</v>
+        <v>0.4603960396039604</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01893753342893581</v>
+        <v>0.1544095617201593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01870202616555616</v>
+        <v>0.1563712911946433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21599415738543</v>
+        <v>0.4748798602009611</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2440537745604964</v>
+        <v>0.4183168316831683</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01892045008148565</v>
+        <v>0.1521382004850441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0186605165945366</v>
+        <v>0.1530476404087884</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2267664779989045</v>
+        <v>0.4665792922673657</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2306101344364012</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01893268849397468</v>
+        <v>0.1500093825161457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0187446215422824</v>
+        <v>0.1518829869372504</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2181851378491875</v>
+        <v>0.4718217562254259</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2119958634953464</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01887500856808105</v>
+        <v>0.1494417807294263</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01860201131785288</v>
+        <v>0.1505193731614522</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2388168705495709</v>
+        <v>0.472258628221931</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2419855222337125</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01881087619031585</v>
+        <v>0.147887515111102</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01870627666357905</v>
+        <v>0.1495923421212605</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2335220010954902</v>
+        <v>0.4740061162079511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2637021716649431</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01885811884909175</v>
+        <v>0.1471303432352013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01878842455334961</v>
+        <v>0.1500270707266671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2411904327186416</v>
+        <v>0.4766273481869812</v>
       </c>
       <c r="E13" t="n">
-        <v>0.265770423991727</v>
+        <v>0.4430693069306931</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01884972364750019</v>
+        <v>0.146904425488578</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0186139447032474</v>
+        <v>0.1485613690955298</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2408252693080153</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2605997931747673</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01874740183526693</v>
+        <v>0.1464971490204334</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01869003608589992</v>
+        <v>0.1511516954217638</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2459375570567829</v>
+        <v>0.472258628221931</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2699069286452948</v>
+        <v>0.4282178217821782</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01878943759948015</v>
+        <v>0.1467693497737249</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0186301184585318</v>
+        <v>0.1487778297492436</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2554318057330656</v>
+        <v>0.4766273481869812</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2378490175801448</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0187350194576348</v>
+        <v>0.1462186185850037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01856566977221519</v>
+        <v>0.1482114962169102</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2428336680664597</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2574974146845915</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01880216536783548</v>
+        <v>0.1459870982087321</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01862540846923366</v>
+        <v>0.1480619524206434</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2530582435639949</v>
+        <v>0.472258628221931</v>
       </c>
       <c r="E18" t="n">
-        <v>0.280248190279214</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01872426941774266</v>
+        <v>0.1459855987793869</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01860802288865671</v>
+        <v>0.1487863766295569</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2523279167427424</v>
+        <v>0.4753167321974661</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2564632885211996</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01870377617346686</v>
+        <v>0.1459881001048618</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01857498683966696</v>
+        <v>0.1485558812107359</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2486762826364798</v>
+        <v>0.4748798602009611</v>
       </c>
       <c r="E20" t="n">
-        <v>0.281282316442606</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01869833021056513</v>
+        <v>0.14607550493545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01855217746924609</v>
+        <v>0.1486935700689043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2545188972064999</v>
+        <v>0.4678899082568808</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2688728024819028</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01875049022004701</v>
+        <v>0.1459456976089213</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01861289708176628</v>
+        <v>0.1476656773260661</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2541537337958736</v>
+        <v>0.472695500218436</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2761116856256463</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0187223116044215</v>
+        <v>0.1455164456533061</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01863948657410219</v>
+        <v>0.1477858402899333</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2572576227861968</v>
+        <v>0.4783748361730013</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2668045501551189</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.018720043595707</v>
+        <v>0.1455759720669852</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01854720036499202</v>
+        <v>0.1479469899620329</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2552492240277524</v>
+        <v>0.4788117081695064</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2564632885211996</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01868197919670925</v>
+        <v>0.1456527358127965</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01855229266220704</v>
+        <v>0.1475051109279905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2501369362789849</v>
+        <v>0.4744429882044561</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2709410548086866</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01869278681616104</v>
+        <v>0.145218924101856</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0186781546799466</v>
+        <v>0.1477153641836984</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2576227861968231</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2823164426059979</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01868504926908848</v>
+        <v>0.1454393474592103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01856085762847215</v>
+        <v>0.1483653762510845</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2567098776702574</v>
+        <v>0.4748798602009611</v>
       </c>
       <c r="E27" t="n">
-        <v>0.265770423991727</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01862135320512015</v>
+        <v>0.1455435715615749</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01856687024701387</v>
+        <v>0.1476428828069142</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2530582435639949</v>
+        <v>0.4744429882044561</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2709410548086866</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01871472919836294</v>
+        <v>0.1454463141659895</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01856255001621321</v>
+        <v>0.1476532412426812</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2554318057330656</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2709410548086866</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0187245721300674</v>
+        <v>0.1448695113261541</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01871578436112031</v>
+        <v>0.1474740249770028</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2510498448055505</v>
+        <v>0.4753167321974661</v>
       </c>
       <c r="E30" t="n">
-        <v>0.265770423991727</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01861719174180613</v>
+        <v>0.1453206150068177</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01891195651842281</v>
+        <v>0.1473551626716341</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2484937009311667</v>
+        <v>0.473569244211446</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2771458117890382</v>
+        <v>0.4603960396039604</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01866277249876496</v>
+        <v>0.1452609594497416</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01869140274357051</v>
+        <v>0.1473551733153207</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2547014789118131</v>
+        <v>0.4779379641764963</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2678386763185109</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0186454007878553</v>
+        <v>0.1452938574883673</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01855312060797587</v>
+        <v>0.1474132005657469</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2515975899214898</v>
+        <v>0.4801223241590214</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2771458117890382</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01866888681556596</v>
+        <v>0.1450138152059582</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01853460964048281</v>
+        <v>0.1472619686807905</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2545188972064999</v>
+        <v>0.4757536041939712</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2605997931747673</v>
+        <v>0.4603960396039604</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01862792157416427</v>
+        <v>0.1450722470051712</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01855137431994081</v>
+        <v>0.1477539603199278</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2525104984480555</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2709410548086866</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01864146898219059</v>
+        <v>0.1451460895025068</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01856143359327689</v>
+        <v>0.1472385951450893</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2515975899214898</v>
+        <v>0.4700742682394058</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2678386763185109</v>
+        <v>0.4628712871287129</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01869786228594738</v>
+        <v>0.1452113363063998</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01860397588461637</v>
+        <v>0.1475304471594947</v>
       </c>
       <c r="D37" t="n">
-        <v>0.246120138762096</v>
+        <v>0.4748798602009611</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2905894519131334</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01861907193047363</v>
+        <v>0.1450236232744323</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01860849949298427</v>
+        <v>0.147864390696798</v>
       </c>
       <c r="D38" t="n">
-        <v>0.258900858134015</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2699069286452948</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01865119554189056</v>
+        <v>0.1453055027458403</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01863851153757423</v>
+        <v>0.1476842314004898</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2490414460471061</v>
+        <v>0.4744429882044561</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2916235780765253</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01860665821275392</v>
+        <v>0.1446153550512261</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01850984868360683</v>
+        <v>0.1476514339447021</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2683951068102976</v>
+        <v>0.4766273481869812</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2740434332988624</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01866332939717659</v>
+        <v>0.1449044793844223</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01848860108293593</v>
+        <v>0.1476635294301169</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2536059886799343</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2771458117890382</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0185788064913521</v>
+        <v>0.1446633160942131</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01874781906371936</v>
+        <v>0.1473141355173928</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2605440934818331</v>
+        <v>0.4748798602009611</v>
       </c>
       <c r="E42" t="n">
-        <v>0.296794208893485</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01865076558491172</v>
+        <v>0.1449448693957594</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01848259370308369</v>
+        <v>0.1471295527049473</v>
       </c>
       <c r="D43" t="n">
-        <v>0.261822165419025</v>
+        <v>0.4744429882044561</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2688728024819028</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01859438752885475</v>
+        <v>0.1449119639065531</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0184629094437696</v>
+        <v>0.1471534946135112</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2598137666605806</v>
+        <v>0.4775010921799913</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2605997931747673</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01856459492037809</v>
+        <v>0.1447310000658035</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01846699422458187</v>
+        <v>0.1476945387465613</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2543363155011868</v>
+        <v>0.4788117081695064</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3050672182006205</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01853477463212817</v>
+        <v>0.1446193572547701</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01853034528903663</v>
+        <v>0.1475221514701843</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2669344531677926</v>
+        <v>0.4757536041939712</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2616339193381593</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01859053522131817</v>
+        <v>0.1450017475419574</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01850483677117154</v>
+        <v>0.1472400448151997</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2594486032499543</v>
+        <v>0.472695500218436</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2864529472595657</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01859743626744941</v>
+        <v>0.1446718811574909</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01846881385426968</v>
+        <v>0.147387078830174</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2665692897571663</v>
+        <v>0.473132372214941</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2719751809720786</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01852762791176521</v>
+        <v>0.1444620709452364</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01852117083035409</v>
+        <v>0.1480864797319685</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2557969691436918</v>
+        <v>0.4753167321974661</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3412616339193382</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01854627535050345</v>
+        <v>0.1447508817331659</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01888535544276237</v>
+        <v>0.147505311029298</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2696731787474895</v>
+        <v>0.472258628221931</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2916235780765253</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0185927399000976</v>
+        <v>0.1447975896298885</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01844658621121198</v>
+        <v>0.1475956227098192</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2616395837137119</v>
+        <v>0.4783748361730013</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3195449844881075</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01853227604527113</v>
+        <v>0.144261733111408</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01842655177460983</v>
+        <v>0.1475893471922193</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266021544641227</v>
+        <v>0.4783748361730013</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2709410548086866</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01856335638047651</v>
+        <v>0.144711518039306</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01843178266426548</v>
+        <v>0.1470724812575749</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2616395837137119</v>
+        <v>0.473569244211446</v>
       </c>
       <c r="E53" t="n">
-        <v>0.280248190279214</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01851355460970554</v>
+        <v>0.1444184473819203</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0184284407296218</v>
+        <v>0.1470089299338204</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2742377213803177</v>
+        <v>0.4757536041939712</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3154084798345398</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01851968600436352</v>
+        <v>0.1442391839292314</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01836669113254175</v>
+        <v>0.147029778787068</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2725944860324995</v>
+        <v>0.4744429882044561</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2792140641158221</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01851704783824294</v>
+        <v>0.1444259751588106</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01837943465216085</v>
+        <v>0.1471515553338187</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2822713164140953</v>
+        <v>0.4766273481869812</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2730093071354705</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01854835792856161</v>
+        <v>0.1444680992927816</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01840316865127534</v>
+        <v>0.1469369807413646</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2795325908343984</v>
+        <v>0.4740061162079511</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3226473629782833</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01856089805707682</v>
+        <v>0.1441542313744625</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01836524996906519</v>
+        <v>0.1475156652075904</v>
       </c>
       <c r="D58" t="n">
-        <v>0.286105532225671</v>
+        <v>0.4748798602009611</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2957600827300931</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01848774309118473</v>
+        <v>0.1444745699150695</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0185400900663808</v>
+        <v>0.1468572872025626</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2828190615300347</v>
+        <v>0.472695500218436</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2730093071354705</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01848188754127816</v>
+        <v>0.1443032783766588</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01839811826357618</v>
+        <v>0.146913543343544</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2901223297425598</v>
+        <v>0.4757536041939712</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2781799379524302</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01853135745799126</v>
+        <v>0.1442640680405829</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01831857766956091</v>
+        <v>0.14704800929342</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2808106627715903</v>
+        <v>0.4744429882044561</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3081695966907963</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01842395768522523</v>
+        <v>0.1442201853626304</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01832606829702854</v>
+        <v>0.147079165492739</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3001643235347818</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E62" t="n">
-        <v>0.281282316442606</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01843483913906438</v>
+        <v>0.1438900352352195</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01827847876120359</v>
+        <v>0.1470338574477605</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2831842249406609</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3288521199586349</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01849937421637912</v>
+        <v>0.1442101072106096</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01829423190793023</v>
+        <v>0.1472925756658827</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2842797151725397</v>
+        <v>0.473132372214941</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3340227507755946</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01844199268190667</v>
+        <v>0.1439475640654564</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0183175410493277</v>
+        <v>0.1465838849544525</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2935913821435092</v>
+        <v>0.4753167321974661</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3650465356773526</v>
+        <v>0.4455445544554456</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01841243961825967</v>
+        <v>0.1438126456406381</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0182509008445777</v>
+        <v>0.1467053251607078</v>
       </c>
       <c r="D66" t="n">
-        <v>0.296147526017893</v>
+        <v>0.4705111402359109</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3298862461220269</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01841408186483868</v>
+        <v>0.1441778822077645</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01843669207300991</v>
+        <v>0.1468230422054018</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2999817418294687</v>
+        <v>0.4796854521625164</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2895553257497415</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01834536480262529</v>
+        <v>0.1438563822044266</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01826672273455188</v>
+        <v>0.1469573335988181</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2968778528391455</v>
+        <v>0.472695500218436</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3505687693898656</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01840674498140119</v>
+        <v>0.1440442643231816</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01828670757822692</v>
+        <v>0.1469627703939165</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3019901405879131</v>
+        <v>0.4753167321974661</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3329886246122027</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01842316557371686</v>
+        <v>0.144018699725469</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0182308912044391</v>
+        <v>0.1467833731855665</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2901223297425598</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3195449844881075</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01832593444648177</v>
+        <v>0.1437223841332727</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01820024277549237</v>
+        <v>0.1468475354569299</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3056417746941756</v>
+        <v>0.473569244211446</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3195449844881075</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01835232113249773</v>
+        <v>0.1438357186400228</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01824215200031176</v>
+        <v>0.1472875773906708</v>
       </c>
       <c r="D72" t="n">
-        <v>0.297608179660398</v>
+        <v>0.4744429882044561</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3164426059979317</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01838378949350742</v>
+        <v>0.1439233006288608</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01826730475295335</v>
+        <v>0.1465925425291061</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3039985393463575</v>
+        <v>0.473132372214941</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3402275077559462</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01837184557387995</v>
+        <v>0.1437057236002551</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01818875467870384</v>
+        <v>0.146549220596041</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3021727222932262</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E74" t="n">
-        <v>0.343329886246122</v>
+        <v>0.4430693069306931</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01852164287553277</v>
+        <v>0.1436633380750815</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01814380672294647</v>
+        <v>0.1463972436530249</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3016249771772868</v>
+        <v>0.4748798602009611</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3412616339193382</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01834181339891498</v>
+        <v>0.1434227265417576</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01819652295671403</v>
+        <v>0.1471852724041258</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3142231148438926</v>
+        <v>0.4748798602009611</v>
       </c>
       <c r="E76" t="n">
-        <v>0.296794208893485</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01837985151512332</v>
+        <v>0.1437946475214428</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0181905678473413</v>
+        <v>0.1470200376851218</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3016249771772868</v>
+        <v>0.473569244211446</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3485005170630817</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01831196650299569</v>
+        <v>0.1437353806363212</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01822199462912977</v>
+        <v>0.1467170885631016</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3207960562351652</v>
+        <v>0.4740061162079511</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3712512926577042</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01842582753188042</v>
+        <v>0.1434459003309409</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01816016488010064</v>
+        <v>0.1468915492296219</v>
       </c>
       <c r="D79" t="n">
-        <v>0.314770859959832</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3081695966907963</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01834245843726189</v>
+        <v>0.1432762584752507</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01815064164111391</v>
+        <v>0.1465633447681154</v>
       </c>
       <c r="D80" t="n">
-        <v>0.317509585539529</v>
+        <v>0.472695500218436</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3309203722854188</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01835840379516053</v>
+        <v>0.1432122343944179</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01812464580871165</v>
+        <v>0.1467252714293344</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3094759905057513</v>
+        <v>0.4744429882044561</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3185108583247156</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01833390991398415</v>
+        <v>0.1431292738351557</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0181738436804153</v>
+        <v>0.147042983344623</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3193354025926602</v>
+        <v>0.4788117081695064</v>
       </c>
       <c r="E82" t="n">
-        <v>0.358841778697001</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01827587541409357</v>
+        <v>0.1436006714486414</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01833722332958132</v>
+        <v>0.1466771811246872</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3246302720467409</v>
+        <v>0.4783748361730013</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3815925542916236</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01826926892579988</v>
+        <v>0.1431527783473333</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01814878272125497</v>
+        <v>0.1465933493205479</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3131276246120139</v>
+        <v>0.4788117081695064</v>
       </c>
       <c r="E84" t="n">
-        <v>0.343329886246122</v>
+        <v>0.4455445544554456</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01825529281699727</v>
+        <v>0.1431529238406155</v>
       </c>
       <c r="C85" t="n">
-        <v>0.018198725534603</v>
+        <v>0.1461592018604279</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3240825269308015</v>
+        <v>0.473569244211446</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3629782833505688</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01826978409879429</v>
+        <v>0.1430980376899242</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01811206940328702</v>
+        <v>0.1468248814344406</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3251780171626803</v>
+        <v>0.4796854521625164</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3340227507755946</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01826057238720877</v>
+        <v>0.1428572796285152</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01831445895368233</v>
+        <v>0.1462517572300775</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3164140953076502</v>
+        <v>0.4779379641764963</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3846949327817994</v>
+        <v>0.4628712871287129</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0183389087879034</v>
+        <v>0.1429180656042364</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01811154634924605</v>
+        <v>0.1459405869245529</v>
       </c>
       <c r="D88" t="n">
-        <v>0.324812853752054</v>
+        <v>0.4827435561380515</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3516028955532575</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01821920605982805</v>
+        <v>0.1428655924068557</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01832223613746464</v>
+        <v>0.1461639510733741</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3244476903414278</v>
+        <v>0.4884228920926169</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3795243019648397</v>
+        <v>0.4455445544554456</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01821070349623644</v>
+        <v>0.1423524361517694</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01816376578062773</v>
+        <v>0.146076032093593</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3293773963848822</v>
+        <v>0.4858016601135867</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3629782833505688</v>
+        <v>0.4628712871287129</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01826311252621371</v>
+        <v>0.1426887224531836</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01814185548573732</v>
+        <v>0.1453683163438524</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3288296512689429</v>
+        <v>0.4923547400611621</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3578076525336091</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01823662185694936</v>
+        <v>0.1427196736137072</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01813014212530106</v>
+        <v>0.1458974970238549</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3379587365345992</v>
+        <v>0.4901703800786369</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3298862461220269</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01828858641864255</v>
+        <v>0.1423035359217061</v>
       </c>
       <c r="C93" t="n">
-        <v>0.018081211426761</v>
+        <v>0.146602281502315</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3246302720467409</v>
+        <v>0.4884228920926169</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3412616339193382</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01827813660032874</v>
+        <v>0.1425433403087987</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01831240259343758</v>
+        <v>0.1458967966692788</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3259083439839328</v>
+        <v>0.4958497160332023</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3764219234746639</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01824571113210431</v>
+        <v>0.1422246092309555</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01818084757542238</v>
+        <v>0.1457119967256273</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3271864159211247</v>
+        <v>0.4997815640017475</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3609100310237849</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01823222871090091</v>
+        <v>0.1423105448484421</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01820062042679638</v>
+        <v>0.145626710993903</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3288296512689429</v>
+        <v>0.4923547400611621</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3640124095139607</v>
+        <v>0.4603960396039604</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01828713986892686</v>
+        <v>0.1419440528584851</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01808225037530065</v>
+        <v>0.1452380269765854</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3242651086361147</v>
+        <v>0.491480996068152</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3402275077559462</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01822991313975911</v>
+        <v>0.1424148647735516</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01808584498940036</v>
+        <v>0.1457055636814662</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3324812853752054</v>
+        <v>0.491480996068152</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3350568769389866</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01818830939009786</v>
+        <v>0.1419463867528571</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01818168454337865</v>
+        <v>0.1454881685120719</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3333941939017711</v>
+        <v>0.5015290519877675</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3609100310237849</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01824465134116106</v>
+        <v>0.1416413924760289</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01812515413621441</v>
+        <v>0.1447913157088416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3299251415008216</v>
+        <v>0.5015290519877675</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3650465356773526</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01821316377974527</v>
+        <v>0.1417123015142149</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01830339187290519</v>
+        <v>0.1450259238481522</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3284644878583166</v>
+        <v>0.5024027959807776</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3981385729058945</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01825484925837711</v>
+        <v>0.1415679539657301</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01810225681401789</v>
+        <v>0.145122046981539</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3324812853752054</v>
+        <v>0.5028396679772826</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3640124095139607</v>
+        <v>0.4579207920792079</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01819488311966145</v>
+        <v>0.141674330458045</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01808744628215209</v>
+        <v>0.1446818241051265</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3377761548292861</v>
+        <v>0.4958497160332023</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3185108583247156</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01817398888687062</v>
+        <v>0.1414328409979741</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01818142813863233</v>
+        <v>0.1447322645357677</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3328464487858316</v>
+        <v>0.5058977719528178</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3691830403309204</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01824091710583415</v>
+        <v>0.141687552134196</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01811777206603438</v>
+        <v>0.1449245065450668</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3312032134380135</v>
+        <v>0.491044124071647</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3526370217166495</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01817636409514519</v>
+        <v>0.1414607626696428</v>
       </c>
       <c r="C106" t="n">
-        <v>0.01805887778755277</v>
+        <v>0.1449584769351142</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3301077232061347</v>
+        <v>0.5006553079947575</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3422957600827301</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0181945086088638</v>
+        <v>0.1411930014275842</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01808231929317117</v>
+        <v>0.1455261132546834</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3355851743655286</v>
+        <v>0.5028396679772826</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3505687693898656</v>
+        <v>0.448019801980198</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01814143807995458</v>
+        <v>0.1409583520144224</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01806598040275276</v>
+        <v>0.1449398526123592</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3386890633558517</v>
+        <v>0.4984709480122324</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3464322647362978</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01825524381426878</v>
+        <v>0.1412962815827793</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01809399086050689</v>
+        <v>0.1445333595786776</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3330290304911448</v>
+        <v>0.5019659239842726</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3526370217166495</v>
+        <v>0.4628712871287129</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01827901541147121</v>
+        <v>0.1409554547733731</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01807668228866532</v>
+        <v>0.1451178938150406</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3315683768486398</v>
+        <v>0.5010921799912625</v>
       </c>
       <c r="E110" t="n">
-        <v>0.375387797311272</v>
+        <v>0.4727722772277227</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01814486343023735</v>
+        <v>0.1410134813437859</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01807050843490288</v>
+        <v>0.1448727803570884</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3425232791674274</v>
+        <v>0.5032765399737876</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3526370217166495</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01823993307689941</v>
+        <v>0.1411317872504393</v>
       </c>
       <c r="C112" t="n">
-        <v>0.01805281382985413</v>
+        <v>0.1445159869534629</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3445316779258718</v>
+        <v>0.4941022280471822</v>
       </c>
       <c r="E112" t="n">
-        <v>0.344364012409514</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01819037391565913</v>
+        <v>0.1409121855265564</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01806349225807935</v>
+        <v>0.1446227878332138</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3354025926602154</v>
+        <v>0.4927916120576671</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3453981385729059</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01819133152102315</v>
+        <v>0.1409254603915744</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0180398779339157</v>
+        <v>0.1443767292158944</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3332116121964579</v>
+        <v>0.4975972040192224</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3453981385729059</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01816884549551232</v>
+        <v>0.1405568749954303</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01804323028773069</v>
+        <v>0.1440736800432205</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3363155011867811</v>
+        <v>0.5050240279598078</v>
       </c>
       <c r="E115" t="n">
-        <v>0.344364012409514</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01816193459468872</v>
+        <v>0.1405800614092085</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01809467317070812</v>
+        <v>0.144212543964386</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3301077232061347</v>
+        <v>0.5067715159458279</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3578076525336091</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.018191299282101</v>
+        <v>0.1406176996727785</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01811849919613451</v>
+        <v>0.1438895059483392</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3332116121964579</v>
+        <v>0.5054608999563128</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3877973112719752</v>
+        <v>0.4727722772277227</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.01819851258119871</v>
+        <v>0.14039321616292</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01829245931003243</v>
+        <v>0.1440364910023553</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3313857951433266</v>
+        <v>0.5015290519877675</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3960703205791106</v>
+        <v>0.4504950495049505</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.01823272695764899</v>
+        <v>0.1400790756775273</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01803038769867271</v>
+        <v>0.1436258714113917</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3441665145152455</v>
+        <v>0.4967234600262123</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3557394002068252</v>
+        <v>0.4727722772277227</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01816570979737958</v>
+        <v>0.1400213456816143</v>
       </c>
       <c r="C120" t="n">
-        <v>0.01808718370739371</v>
+        <v>0.1441801637411118</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3308380500273873</v>
+        <v>0.5072083879423329</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3609100310237849</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01815193722587685</v>
+        <v>0.1400049891736772</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01809541770489886</v>
+        <v>0.1437919225011553</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3357677560708417</v>
+        <v>0.4984709480122324</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3784901758014478</v>
+        <v>0.4727722772277227</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01808520414065137</v>
+        <v>0.1402600434505277</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01806259894510731</v>
+        <v>0.1436785289219447</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3352200109549023</v>
+        <v>0.5054608999563128</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3784901758014478</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01814634563011485</v>
+        <v>0.140434285832776</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01805307157337666</v>
+        <v>0.1440950206347874</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3456271681577506</v>
+        <v>0.5006553079947575</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3609100310237849</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01816983381286263</v>
+        <v>0.1402079984545708</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01808574161259457</v>
+        <v>0.1437233814171382</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3359503377761549</v>
+        <v>0.5015290519877675</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3681489141675284</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01813195691292369</v>
+        <v>0.1404870607786708</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01827831257833168</v>
+        <v>0.1437820217439107</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3374109914186599</v>
+        <v>0.5015290519877675</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3867631851085833</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01817469948599505</v>
+        <v>0.1397474791026778</v>
       </c>
       <c r="C126" t="n">
-        <v>0.01805882039479911</v>
+        <v>0.1437106047357832</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3463574949790031</v>
+        <v>0.5054608999563128</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3557394002068252</v>
+        <v>0.4727722772277227</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01817053649574518</v>
+        <v>0.1398513627549013</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01820502086775377</v>
+        <v>0.1438889460904258</v>
       </c>
       <c r="D127" t="n">
-        <v>0.331933540259266</v>
+        <v>0.509829619921363</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3609100310237849</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01814685781421356</v>
+        <v>0.1397458590153191</v>
       </c>
       <c r="C128" t="n">
-        <v>0.01819790160516277</v>
+        <v>0.1432355088847024</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3423406974621143</v>
+        <v>0.5010921799912625</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3609100310237849</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0181798423900334</v>
+        <v>0.1398140916393863</v>
       </c>
       <c r="C129" t="n">
-        <v>0.01807279314380139</v>
+        <v>0.1435076615640095</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3344896841336498</v>
+        <v>0.5072083879423329</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3691830403309204</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.01813347351758979</v>
+        <v>0.1393844466656446</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01810536737320945</v>
+        <v>0.1436158461230142</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3485484754427606</v>
+        <v>0.5058977719528178</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3702171664943123</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.01820732206972532</v>
+        <v>0.1398304452498754</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01831096934620291</v>
+        <v>0.1439687247787203</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3306554683220742</v>
+        <v>0.5028396679772826</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3971044467425026</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.01811144636337494</v>
+        <v>0.1398480573876036</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01830849651014432</v>
+        <v>0.1442431339195796</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3394193901771043</v>
+        <v>0.5024027959807776</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3888314374353671</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01812997889206853</v>
+        <v>0.1396860592067242</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0181765200686641</v>
+        <v>0.1435373148747853</v>
       </c>
       <c r="D133" t="n">
-        <v>0.330472886616761</v>
+        <v>0.4932284840541721</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3836608066184075</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01811138041274146</v>
+        <v>0.1396647681378656</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01801322505343705</v>
+        <v>0.1434910723141261</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3448968413364981</v>
+        <v>0.4980340760157274</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.01811393706647809</v>
+        <v>0.1393068076835738</v>
       </c>
       <c r="C135" t="n">
-        <v>0.01817405986366794</v>
+        <v>0.1435805835894176</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3436187693993062</v>
+        <v>0.5050240279598078</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3826266804550155</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0181844552740628</v>
+        <v>0.1394779005398353</v>
       </c>
       <c r="C136" t="n">
-        <v>0.01815799775067717</v>
+        <v>0.1435473369700568</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3425232791674274</v>
+        <v>0.4997815640017475</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3650465356773526</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0180935662369742</v>
+        <v>0.1394535828795698</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0181695984210819</v>
+        <v>0.1434078024966376</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3414277889355486</v>
+        <v>0.4997815640017475</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3877973112719752</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.01811338402330875</v>
+        <v>0.1391545828017924</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01803431467851624</v>
+        <v>0.1436889788934163</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3501917107905788</v>
+        <v>0.5041502839667977</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3598759048603929</v>
+        <v>0.4628712871287129</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.01814936400326185</v>
+        <v>0.1396541916247871</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0181448002695106</v>
+        <v>0.1432598169360842</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3333941939017711</v>
+        <v>0.5019659239842726</v>
       </c>
       <c r="E139" t="n">
-        <v>0.375387797311272</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0181219820258056</v>
+        <v>0.1391514961918195</v>
       </c>
       <c r="C140" t="n">
-        <v>0.01801050046924502</v>
+        <v>0.1434167453220912</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3511046193171444</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3350568769389866</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.01815100096512673</v>
+        <v>0.1396316958384382</v>
       </c>
       <c r="C141" t="n">
-        <v>0.01803974516224116</v>
+        <v>0.1430347604410989</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3366806645974074</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3319544984488108</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.01814524623630352</v>
+        <v>0.1394188358551926</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01822219468886033</v>
+        <v>0.1428208319204194</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3348548475442761</v>
+        <v>0.5067715159458279</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3950361944157187</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.01808116624001847</v>
+        <v>0.1393594298925665</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01826695055933669</v>
+        <v>0.1431568690708705</v>
       </c>
       <c r="D143" t="n">
-        <v>0.34617491327369</v>
+        <v>0.5058977719528178</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3991726990692864</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.01804679785963408</v>
+        <v>0.1390507978697618</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01833422906929627</v>
+        <v>0.1432900407484599</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3414277889355486</v>
+        <v>0.5037134119702927</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4074457083764219</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.01821062006706069</v>
+        <v>0.1393356257014804</v>
       </c>
       <c r="C145" t="n">
-        <v>0.01817850326187909</v>
+        <v>0.1429608389735222</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3359503377761549</v>
+        <v>0.4971603320227174</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3185108583247156</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.01818808620838925</v>
+        <v>0.1388834396170245</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01809464313555509</v>
+        <v>0.1429999385561262</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3392368084717911</v>
+        <v>0.4967234600262123</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3247156153050672</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.01820501292037756</v>
+        <v>0.1392322356502215</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01801575924037024</v>
+        <v>0.1429006393466677</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3416103706408618</v>
+        <v>0.5024027959807776</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3526370217166495</v>
+        <v>0.4876237623762376</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01812543350726713</v>
+        <v>0.1388277837799655</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01813901227433234</v>
+        <v>0.143651151231357</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3428884425780537</v>
+        <v>0.5063346439493228</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3733195449844881</v>
+        <v>0.4653465346534654</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01807397934283281</v>
+        <v>0.13932782659928</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01804949186043814</v>
+        <v>0.1437943109444209</v>
       </c>
       <c r="D149" t="n">
-        <v>0.344714259631185</v>
+        <v>0.491480996068152</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3784901758014478</v>
+        <v>0.4628712871287129</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01811904515421321</v>
+        <v>0.1390263229194615</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01805389963556081</v>
+        <v>0.1433097634996687</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3359503377761549</v>
+        <v>0.491044124071647</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3784901758014478</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01814425133471919</v>
+        <v>0.1386945127613015</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01805377379059792</v>
+        <v>0.1430337918656213</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3436187693993062</v>
+        <v>0.5072083879423329</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.01809744650584667</v>
+        <v>0.1390447090897295</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01809685071930289</v>
+        <v>0.1427325989518847</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3467226583896293</v>
+        <v>0.5063346439493228</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="153">
@@ -3032,16 +3032,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.01808593862928277</v>
+        <v>0.1392374771336714</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01802679424872622</v>
+        <v>0.1432510848556246</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3481833120321344</v>
+        <v>0.490607252075142</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3547052740434333</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="154">
@@ -3049,16 +3049,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.01808528721245915</v>
+        <v>0.1388058954228958</v>
       </c>
       <c r="C154" t="n">
-        <v>0.01803761639166623</v>
+        <v>0.1428004716123853</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3354025926602154</v>
+        <v>0.5067715159458279</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3702171664943123</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="155">
@@ -3066,16 +3066,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.01817660656389455</v>
+        <v>0.1387866756154431</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01801823428831995</v>
+        <v>0.143050525869642</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3434361876939931</v>
+        <v>0.5037134119702927</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3764219234746639</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="156">
@@ -3083,16 +3083,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.01807414581132836</v>
+        <v>0.1387203940086895</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01815266808262095</v>
+        <v>0.1425135082432202</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3496439656746394</v>
+        <v>0.5037134119702927</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3836608066184075</v>
+        <v>0.4925742574257426</v>
       </c>
     </row>
     <row r="157">
@@ -3100,16 +3100,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.01811230012627189</v>
+        <v>0.1387438000076347</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0180905187735334</v>
+        <v>0.1435184414897646</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3386890633558517</v>
+        <v>0.4936653560506771</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3733195449844881</v>
+        <v>0.4727722772277227</v>
       </c>
     </row>
     <row r="158">
@@ -3117,16 +3117,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0180598245283892</v>
+        <v>0.1389864480329884</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01817747479071841</v>
+        <v>0.1431090065411159</v>
       </c>
       <c r="D158" t="n">
-        <v>0.340514880408983</v>
+        <v>0.5015290519877675</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3805584281282317</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="159">
@@ -3134,16 +3134,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.01813995824087151</v>
+        <v>0.1387868641565243</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01808760222047567</v>
+        <v>0.1427542162793023</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3454445864524375</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3784901758014478</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="160">
@@ -3151,16 +3151,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.01812432848220301</v>
+        <v>0.1388207378072871</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01813982613384724</v>
+        <v>0.14273544720241</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3432536059886799</v>
+        <v>0.5041502839667977</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3960703205791106</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="161">
@@ -3168,16 +3168,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01807997809982924</v>
+        <v>0.1387021518829796</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01805279805557802</v>
+        <v>0.1425124428101948</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3538433448968413</v>
+        <v>0.5037134119702927</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3826266804550155</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="162">
@@ -3185,16 +3185,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.01807228747625337</v>
+        <v>0.1385254077613354</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01802507846150547</v>
+        <v>0.1423406600952148</v>
       </c>
       <c r="D162" t="n">
-        <v>0.337593573123973</v>
+        <v>0.5058977719528178</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3712512926577042</v>
+        <v>0.4975247524752475</v>
       </c>
     </row>
     <row r="163">
@@ -3202,16 +3202,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.01808320467771832</v>
+        <v>0.1383725295050277</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01800428243586794</v>
+        <v>0.1423587799072266</v>
       </c>
       <c r="D163" t="n">
-        <v>0.347635566916195</v>
+        <v>0.5163826998689384</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3526370217166495</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="164">
@@ -3219,16 +3219,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.01805368734003846</v>
+        <v>0.138555783778429</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01811182789970189</v>
+        <v>0.1427945196628571</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3403322987036699</v>
+        <v>0.5128877238968982</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3795243019648397</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="165">
@@ -3236,16 +3236,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.01808502970176727</v>
+        <v>0.1387034557345841</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01796348806237802</v>
+        <v>0.1424143899764334</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3478181486215081</v>
+        <v>0.4984709480122324</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3567735263702171</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="166">
@@ -3253,16 +3253,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.01805247387004107</v>
+        <v>0.1383293672568268</v>
       </c>
       <c r="C166" t="n">
-        <v>0.01798954297555611</v>
+        <v>0.1422752195170947</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3441665145152455</v>
+        <v>0.5111402359108781</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3774560496380558</v>
+        <v>0.4925742574257426</v>
       </c>
     </row>
     <row r="167">
@@ -3270,16 +3270,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.01810181906533449</v>
+        <v>0.1384056179473797</v>
       </c>
       <c r="C167" t="n">
-        <v>0.01807841227855533</v>
+        <v>0.1427165993622371</v>
       </c>
       <c r="D167" t="n">
-        <v>0.3459923315683768</v>
+        <v>0.5102664919178681</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3826266804550155</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="168">
@@ -3287,16 +3287,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.01804669524088155</v>
+        <v>0.1386865232553747</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01803963421843946</v>
+        <v>0.1431900688580104</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3582253058243564</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3815925542916236</v>
+        <v>0.4653465346534654</v>
       </c>
     </row>
     <row r="169">
@@ -3304,16 +3304,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0181237472177938</v>
+        <v>0.1385531748334567</v>
       </c>
       <c r="C169" t="n">
-        <v>0.01797103974968195</v>
+        <v>0.1422391980886459</v>
       </c>
       <c r="D169" t="n">
-        <v>0.3379587365345992</v>
+        <v>0.5072083879423329</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="170">
@@ -3321,16 +3321,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.01802496095512842</v>
+        <v>0.1385214854445722</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01811296382220462</v>
+        <v>0.142889603972435</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3456271681577506</v>
+        <v>0.5032765399737876</v>
       </c>
       <c r="E170" t="n">
-        <v>0.3919338159255429</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="171">
@@ -3338,16 +3338,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.01800092701735191</v>
+        <v>0.1381863477743334</v>
       </c>
       <c r="C171" t="n">
-        <v>0.01824337558355182</v>
+        <v>0.1424702703952789</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3417929523461749</v>
+        <v>0.508519003931848</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3971044467425026</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="172">
@@ -3355,16 +3355,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.01806608310272527</v>
+        <v>0.1383499627312025</v>
       </c>
       <c r="C172" t="n">
-        <v>0.01803852699231356</v>
+        <v>0.1419640694345747</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3500091290852657</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3805584281282317</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="173">
@@ -3372,16 +3372,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.01806209355506093</v>
+        <v>0.1384536406646172</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01806759426835924</v>
+        <v>0.1420150867530278</v>
       </c>
       <c r="D173" t="n">
-        <v>0.347635566916195</v>
+        <v>0.5032765399737876</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3619441571871768</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="174">
@@ -3389,16 +3389,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.01800550106739582</v>
+        <v>0.1383628584444523</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01810053881490603</v>
+        <v>0.1433049887418747</v>
       </c>
       <c r="D174" t="n">
-        <v>0.3467226583896293</v>
+        <v>0.5032765399737876</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3867631851085833</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="175">
@@ -3406,16 +3406,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.01801408896612567</v>
+        <v>0.1385003856072823</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01795305585255846</v>
+        <v>0.1419191488197871</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3489136388533869</v>
+        <v>0.4993446920052425</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3516028955532575</v>
+        <v>0.4975247524752475</v>
       </c>
     </row>
     <row r="176">
@@ -3423,16 +3423,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.01803309419517254</v>
+        <v>0.1382851944201522</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01810506999026984</v>
+        <v>0.1422619074583054</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3456271681577506</v>
+        <v>0.5146352118829183</v>
       </c>
       <c r="E176" t="n">
-        <v>0.3898655635987591</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="177">
@@ -3440,16 +3440,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0180788689704482</v>
+        <v>0.1383323007159763</v>
       </c>
       <c r="C177" t="n">
-        <v>0.01820137759204954</v>
+        <v>0.1420588003737586</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3470878218002556</v>
+        <v>0.5072083879423329</v>
       </c>
       <c r="E177" t="n">
-        <v>0.3867631851085833</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="178">
@@ -3457,16 +3457,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.01802843714912617</v>
+        <v>0.1382365932481157</v>
       </c>
       <c r="C178" t="n">
-        <v>0.01806302601471543</v>
+        <v>0.1421683026211602</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3525652729596495</v>
+        <v>0.5076452599388379</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3547052740434333</v>
+        <v>0.4925742574257426</v>
       </c>
     </row>
     <row r="179">
@@ -3474,16 +3474,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.01800767107065334</v>
+        <v>0.1381157744261954</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01812151685589924</v>
+        <v>0.1421435954315322</v>
       </c>
       <c r="D179" t="n">
-        <v>0.3498265473799525</v>
+        <v>0.5058977719528178</v>
       </c>
       <c r="E179" t="n">
-        <v>0.3784901758014478</v>
+        <v>0.4925742574257426</v>
       </c>
     </row>
     <row r="180">
@@ -3491,16 +3491,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.01804186621420952</v>
+        <v>0.138277186287774</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01812838029582053</v>
+        <v>0.1429603781018938</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3459923315683768</v>
+        <v>0.4984709480122324</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3888314374353671</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="181">
@@ -3508,16 +3508,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.01798760649466584</v>
+        <v>0.1384009706477324</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01811643573455513</v>
+        <v>0.1417288854718208</v>
       </c>
       <c r="D181" t="n">
-        <v>0.3492788022640131</v>
+        <v>0.5002184359982526</v>
       </c>
       <c r="E181" t="n">
-        <v>0.375387797311272</v>
+        <v>0.4925742574257426</v>
       </c>
     </row>
     <row r="182">
@@ -3525,16 +3525,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.01805589397892703</v>
+        <v>0.1382805123511288</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01817212143214419</v>
+        <v>0.1419603569167001</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3439839328099324</v>
+        <v>0.4997815640017475</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3774560496380558</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="183">
@@ -3542,16 +3542,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.01799892078608621</v>
+        <v>0.1383773434079356</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0180613647098653</v>
+        <v>0.1418299823999405</v>
       </c>
       <c r="D183" t="n">
-        <v>0.357677560708417</v>
+        <v>0.4980340760157274</v>
       </c>
       <c r="E183" t="n">
-        <v>0.375387797311272</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184">
@@ -3559,16 +3559,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.01802335375226861</v>
+        <v>0.1379031369255649</v>
       </c>
       <c r="C184" t="n">
-        <v>0.01795920834410936</v>
+        <v>0.1422189665692193</v>
       </c>
       <c r="D184" t="n">
-        <v>0.3450794230418112</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3629782833505688</v>
+        <v>0.4876237623762376</v>
       </c>
     </row>
     <row r="185">
@@ -3576,16 +3576,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.01804297129342029</v>
+        <v>0.1383843531625139</v>
       </c>
       <c r="C185" t="n">
-        <v>0.01813867187593132</v>
+        <v>0.14281308225223</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3403322987036699</v>
+        <v>0.5063346439493228</v>
       </c>
       <c r="E185" t="n">
-        <v>0.3981385729058945</v>
+        <v>0.4801980198019802</v>
       </c>
     </row>
     <row r="186">
@@ -3593,16 +3593,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0179767131285612</v>
+        <v>0.1383961025211546</v>
       </c>
       <c r="C186" t="n">
-        <v>0.01800916896900162</v>
+        <v>0.1422349406140191</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3529304363702757</v>
+        <v>0.5028396679772826</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3671147880041365</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="187">
@@ -3610,16 +3610,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.01797623075761421</v>
+        <v>0.1380259051091141</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01800397818442434</v>
+        <v>0.1420079150370189</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3512872010224575</v>
+        <v>0.508519003931848</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3474663908996898</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="188">
@@ -3627,16 +3627,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.01807428339799476</v>
+        <v>0.1382911834451887</v>
       </c>
       <c r="C188" t="n">
-        <v>0.01794984377920628</v>
+        <v>0.1416215502790042</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3439839328099324</v>
+        <v>0.5041502839667977</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3691830403309204</v>
+        <v>0.4925742574257426</v>
       </c>
     </row>
     <row r="189">
@@ -3644,16 +3644,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.01795073273743308</v>
+        <v>0.1381684189869298</v>
       </c>
       <c r="C189" t="n">
-        <v>0.01809584617149085</v>
+        <v>0.142167683158602</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3472704035055688</v>
+        <v>0.5080821319353429</v>
       </c>
       <c r="E189" t="n">
-        <v>0.375387797311272</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="190">
@@ -3661,16 +3661,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01805239856286451</v>
+        <v>0.1380593987802664</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0180584107292816</v>
+        <v>0.1415706468479974</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3496439656746394</v>
+        <v>0.5041502839667977</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3485005170630817</v>
+        <v>0.4876237623762376</v>
       </c>
     </row>
     <row r="191">
@@ -3678,16 +3678,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01806064908457703</v>
+        <v>0.1381854603274001</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01810991240199655</v>
+        <v>0.142751938530377</v>
       </c>
       <c r="D191" t="n">
-        <v>0.3432536059886799</v>
+        <v>0.4980340760157274</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3857290589451913</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="192">
@@ -3695,16 +3695,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.01803950413108565</v>
+        <v>0.1381782655500703</v>
       </c>
       <c r="C192" t="n">
-        <v>0.01805580529617146</v>
+        <v>0.1420580361570631</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3469052400949425</v>
+        <v>0.508955875928353</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3795243019648397</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="193">
@@ -3712,16 +3712,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.01803425399499924</v>
+        <v>0.1379276158081161</v>
       </c>
       <c r="C193" t="n">
-        <v>0.01830195152433589</v>
+        <v>0.1412610443575042</v>
       </c>
       <c r="D193" t="n">
-        <v>0.3507394559065182</v>
+        <v>0.5037134119702927</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3877973112719752</v>
+        <v>0.4925742574257426</v>
       </c>
     </row>
     <row r="194">
@@ -3729,16 +3729,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.01802756092619411</v>
+        <v>0.137833826450838</v>
       </c>
       <c r="C194" t="n">
-        <v>0.01800636813277379</v>
+        <v>0.1416511067322322</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3511046193171444</v>
+        <v>0.509392747924858</v>
       </c>
       <c r="E194" t="n">
-        <v>0.3733195449844881</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="195">
@@ -3746,16 +3746,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.01799644787557596</v>
+        <v>0.138104531293114</v>
       </c>
       <c r="C195" t="n">
-        <v>0.01795014750678092</v>
+        <v>0.141947226864951</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3412452072302355</v>
+        <v>0.5159458278724334</v>
       </c>
       <c r="E195" t="n">
-        <v>0.375387797311272</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="196">
@@ -3763,16 +3763,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.01794815979638072</v>
+        <v>0.1381229019413392</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01809636026155204</v>
+        <v>0.1422935660396303</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3567646521818514</v>
+        <v>0.4997815640017475</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3826266804550155</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="197">
@@ -3780,16 +3780,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.01796847931650835</v>
+        <v>0.1385654728445742</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01794232538668439</v>
+        <v>0.1413737407752446</v>
       </c>
       <c r="D197" t="n">
-        <v>0.3511046193171444</v>
+        <v>0.5050240279598078</v>
       </c>
       <c r="E197" t="n">
-        <v>0.3733195449844881</v>
+        <v>0.4925742574257426</v>
       </c>
     </row>
     <row r="198">
@@ -3797,16 +3797,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0179940729705227</v>
+        <v>0.1379230248017443</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01794431713642552</v>
+        <v>0.1421644038387707</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3529304363702757</v>
+        <v>0.5076452599388379</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.4826732673267327</v>
       </c>
     </row>
     <row r="199">
@@ -3814,16 +3814,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01795574574363093</v>
+        <v>0.1381401841839155</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01814118941547349</v>
+        <v>0.1415824996573584</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3478181486215081</v>
+        <v>0.5063346439493228</v>
       </c>
       <c r="E199" t="n">
-        <v>0.3981385729058945</v>
+        <v>0.4975247524752475</v>
       </c>
     </row>
     <row r="200">
@@ -3831,16 +3831,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0180564365284734</v>
+        <v>0.1379313042594327</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0179619409609586</v>
+        <v>0.1415812543460301</v>
       </c>
       <c r="D200" t="n">
-        <v>0.353295599780902</v>
+        <v>0.5019659239842726</v>
       </c>
       <c r="E200" t="n">
-        <v>0.3640124095139607</v>
+        <v>0.4876237623762376</v>
       </c>
     </row>
     <row r="201">
@@ -3848,16 +3848,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.01802777158919462</v>
+        <v>0.1383451831837495</v>
       </c>
       <c r="C201" t="n">
-        <v>0.01798107486683875</v>
+        <v>0.1412939578294754</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3529304363702757</v>
+        <v>0.5028396679772826</v>
       </c>
       <c r="E201" t="n">
-        <v>0.3733195449844881</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="202">
@@ -3865,16 +3865,5116 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.01798077813501275</v>
+        <v>0.138069364345736</v>
       </c>
       <c r="C202" t="n">
-        <v>0.01815800165059045</v>
+        <v>0.1413218049066407</v>
       </c>
       <c r="D202" t="n">
-        <v>0.3545736717180938</v>
+        <v>0.4949759720401922</v>
       </c>
       <c r="E202" t="n">
-        <v>0.3929679420889349</v>
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.1378761229829656</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.1414340223584856</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.137676861964994</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.1418829496417727</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.5037134119702927</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.1380301506982909</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.1411438999431474</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5037134119702927</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1382202116979493</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1410548303808485</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5024027959807776</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.1381325198130475</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.1418975187199456</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.5010921799912625</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.4801980198019802</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.1380188895596398</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1415708980390004</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.5006553079947575</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.1380254148195187</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1417784456695829</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.1376460024880038</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1412873065897397</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.1375528333915604</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.1413226979119437</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.1374637997812695</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1412325820752553</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.13780301478174</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.1412065625190735</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.5010921799912625</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.137801603310638</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.1412298487765448</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.1381462160497904</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.1411044044154031</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.1378044703354438</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.1414632488574301</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5010921799912625</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.1378407352086571</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.1410861781665257</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.1375730194979244</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1413718930312566</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.1379365018672413</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.141308242721217</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1377980539368259</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.1412132318530764</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.1376483080287774</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.1418458414929254</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.4801980198019802</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.1375339022941059</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1408671310969762</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.137583874579933</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.14125059651477</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.1375857887582647</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1413058936595917</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.1376410911066664</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1408077669995172</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.4971603320227174</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.1380151570257213</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1409149297646114</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.5058977719528178</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.1376049197796318</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1414026830877577</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.5050240279598078</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.1377437659021881</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1409142059939248</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.4971603320227174</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.1377356402162049</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1413492624248777</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4975972040192224</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.1377254351973534</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1407053034220423</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.5181301878549585</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.137118641494049</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1411735096148082</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.1371231480605072</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1414855920842716</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1375470978932248</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1410193549735206</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.5058977719528178</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.1375813111662865</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1409679310662406</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.1374535519215796</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1414877591388566</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1375154674881034</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1407843317304339</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1374698184016678</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1404913993818419</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.5041502839667977</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.1369640371865696</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1406976963792528</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.1377934563077158</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1411818063684872</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5037134119702927</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.1375201305167543</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1405253208109311</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.5041502839667977</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.1375267288337151</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.140314872775759</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.1376383219742113</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.1404310251985277</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.5037134119702927</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.1374379046675232</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1409340926579067</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.1371780580116643</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.1405359410813876</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.1373935145222479</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.1407166421413422</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.1377400538573662</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.1405964429889406</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.4801980198019802</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.1374462876054976</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.1410326893840517</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.1376671039809783</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.1410684958100319</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.1373093059907357</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.1403654249651091</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.1370432741112179</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.1412280201911926</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.1375843878421519</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1403421961835452</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.5006553079947575</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.1373702072434955</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.1403646309460913</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5006553079947575</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.1369842731704315</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.1408654483301299</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.5050240279598078</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.1371681644684739</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.1409100059952055</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.1373234976910883</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.1405163620199476</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5058977719528178</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.1368599300169283</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.1417325139045715</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.4801980198019802</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.1372256564597289</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.1407013876097543</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.5041502839667977</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.1372509029590421</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.1402033397129604</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.1372392328663005</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.140932352415153</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.1372230930460824</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.1402167188269751</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.4777227722772277</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.1369504705071449</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.1405105644038745</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.1370217936734358</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.1409098569835935</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.136842858667175</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.1401101861681257</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.1370432919098271</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.1403644893850599</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.136848515106572</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.1403093284794263</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.1371228843927383</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.1403054509844099</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.1370456665754318</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.1404019179088729</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.1369213136947817</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.1404630435364587</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.1371167459421688</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.1408315833125796</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.1369524403578705</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.1409095972776413</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.1373714481790861</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.1402915322354862</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.1367836397969061</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.1399237768990653</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.1371919628646639</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.1406096326453345</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.137330231981145</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.141087110553469</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.5028396679772826</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.136802454582519</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.1413823174578803</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.1370092756632302</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1400960492236274</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.1371488945765628</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.1414076973284994</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.5019659239842726</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.1375774339669281</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.1406541381563459</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.5058977719528178</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.1367188392000066</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1404095185654504</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.1369481388893392</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1406760109322412</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.1369135063141584</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1398145630955696</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.4801980198019802</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.1368152443319559</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.1401507013610431</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.1367358459780613</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1408079521996634</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.1370542103217708</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.14167663029262</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.5006553079947575</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.1374014692587985</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1406798724617277</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5015290519877675</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.1370375456495417</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.1400662160345486</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5037134119702927</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.1367696738905377</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.139849202973502</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.136825950195392</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1404647443975721</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.5133245958934032</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.1367463359816207</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1399475357362202</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.1369347032159567</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1396940776279994</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.1367293772184187</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.1402358253087316</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.1369126786788305</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.1402617607797895</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.1370310775107808</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.1400514713355473</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.5041502839667977</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.1373674261073271</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.1398903982979911</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.1366575012604395</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.139829794211047</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.1367167255116833</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.1396334895065852</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.1366687313550048</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.1402385575430734</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.1368320064826144</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.1397745726363999</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.1365751487513383</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1401371040514537</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.1371972668502066</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.1402624419757298</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.1366428542468283</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1395872086286545</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.1369012093378438</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.1396764005933489</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.5032765399737876</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.1364497958372037</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1408885355506624</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.1366996810668045</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1400492319038936</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.1368025133593215</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.1401144542864391</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.4984709480122324</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.1365801360872057</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1399668071951185</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.1366028777427143</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.1401721962860652</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.1366115634640058</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.1402708111064775</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.1365642175078392</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.1396629863551685</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.136351590976119</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1414609892027719</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.5168195718654435</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.1368227776967817</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1397960047636713</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.1363417040556669</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1399492365973336</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.5028396679772826</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.13649130695396</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.1403753608465195</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.1368700760520167</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1402007447821753</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.5050240279598078</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.1365925814542505</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.1395055800676346</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.1364602419651217</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.1394763737916946</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.136962226488524</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1407522346292223</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.136606995223297</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.1397829587970461</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.1362781679878632</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1401156080620629</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.1368568276779519</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.139307969382831</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.1361448750313785</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.1401457275663103</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.136546423451768</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.1398387891905648</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.136181321202053</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.1394421607255936</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.1364736054092646</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.1399491003581456</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.1369317529930009</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.1397774623973029</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.5006553079947575</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.1362689536892706</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.1398569281612124</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.1366564147174358</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.1394947192498616</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.5028396679772826</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.1361484287513627</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1397689623492105</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.5146352118829183</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.1362231346882052</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.1394964605569839</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.1361745237890217</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1399782470294408</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.1368037704378366</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.1394383971180235</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.1363298874348402</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.1395987219044141</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.5146352118829183</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.1364195158498155</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1395391715424401</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.1367453318089247</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1394912025758198</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.1370140980515215</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.1406436190009117</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.1364455862591664</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1393499012504305</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.1360999807301495</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1403311022690364</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.1367337743027343</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1401697312082563</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.5015290519877675</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.1364649387283458</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1397132192339216</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.1367288740972678</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1394068258149283</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.136358910964595</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.1406735852360725</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.1362144617984692</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.1396044897181647</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.1364132000340356</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.1397663844483239</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.5159458278724334</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.136087989848521</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.1396436244249344</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.1361932982173231</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.1406781481845038</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.1363107673823833</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.1391352266073227</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.1359642158365912</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.1395046647105898</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.1362486109137535</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.1402337508542197</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.1363523033344083</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.1393282998885427</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.5155089558759284</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.1360046015017563</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1406132216964449</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.1363398380991485</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.1392681002616882</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.1362403916815917</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.1396388241222926</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.136245879655083</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.1395435035228729</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.1360646728426218</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.1388262808322906</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.5054608999563128</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.1361026213400894</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.1399455347231456</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.135957590614756</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.1394589798791068</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.1359831757015652</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.1394613810947963</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.1362274417446719</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.1390714326075145</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.5024027959807776</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.1357508988844024</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.1394641825131007</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.5159458278724334</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.136079541924927</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.140177458524704</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.5185670598514636</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.1363479054222504</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.1395508902413505</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.1359792922933896</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.1395612124885832</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.13613519196709</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.1393277219363621</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.1359528936445713</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.1388797078813825</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.1359654578069846</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.1398888805082866</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.1361866651309861</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.1395640990563801</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.1358444794184632</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.1392312624624797</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.5037134119702927</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.1356115341186523</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.1389830878802708</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.1362255273593797</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.1392963603138924</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.5024027959807776</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.1356394065337049</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.1392822265625</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.5133245958934032</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.1358253243896696</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.1390721148678235</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.136292246894704</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.13943683888231</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.5050240279598078</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.1360452568365468</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.1393128239682742</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.5041502839667977</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.1359176443268856</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.1402879697935922</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.5176933158584535</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.1360959534843763</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.1394576281309128</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.1359888230346971</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.1391065471938678</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.1356319383614593</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.1395209176199777</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.5172564438619485</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.1359503279543585</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.138823715703828</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.5058977719528178</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.1359182616902722</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1396146948848452</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.136034623409311</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.1397028703774725</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.1358143896278408</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.1392690911889076</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.1357924224187931</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.1393478725637708</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.1359114545500941</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1384886694805963</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.1359024174097511</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.1392773027930941</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.1356970394651095</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.1388709268399647</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.1356708450863759</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.1390244790485927</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.1360570759409004</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.1390713091407503</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.1358551370600859</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.1387747834835734</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.1357545064141353</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.1396902075835637</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.1359620566169421</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.1392506595168795</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.1355205838465028</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.1391707829066685</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.5168195718654435</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.1365186721086502</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.1394042021461896</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.4954128440366973</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.1362172561801142</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.1397950713123594</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.5159458278724334</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.1359003386977646</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.1402586475014687</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.1357319102519088</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.1392076398645128</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.1355307596839136</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.1389960816928319</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.1356704255772961</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.1394077624593462</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.5181301878549585</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.1358718642344078</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.1389655715652875</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.1354478086448378</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.1391492134758404</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.1357837828497092</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.1393025687762669</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.1353457609398497</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.1392511555126735</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.1357810962945223</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.1386393627950123</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.1362760553343428</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.139260114303657</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.135984788959225</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.1387412122317723</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.1354531507111258</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.1386487824576242</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.5146352118829183</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.1355301878518528</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.1386579211269106</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.5041502839667977</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.1354357732666863</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.1405266608510699</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.5176933158584535</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.1362176429894235</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.1388001654829298</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.1358609507895178</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.1389013422386987</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.1357210309555133</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.1394046023488045</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.136378974136379</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.1395624343838011</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.1354793786174721</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.1386626894984926</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.5146352118829183</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.1355454006956683</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.1399296266692025</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.1354423763437403</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.1394414326974324</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.136017383593652</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.1387950256466866</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.5041502839667977</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.1352168327818314</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.1394354051777295</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.5181301878549585</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.136240487297376</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.1389004588127136</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.1357585288998154</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.1395073160529137</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.5058977719528178</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.1357484977278444</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.1397502369114331</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.1354899443686008</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.1387549383299691</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.5050240279598078</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.1355769005086687</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.1383401474782399</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.5146352118829183</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.1357256428649028</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.1390828862786293</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.1356554755734073</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.1389146958078657</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.1357985145101945</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.1381479224988393</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.1355738701919715</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.1393559894391469</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.509392747924858</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.1352283012949758</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.1385242257799421</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.1353986377103461</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.1391574250800269</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.5163826998689384</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.1355809550732374</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.1385299829500062</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.1355715071161588</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.1388859035713332</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.135440001057254</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.1387118548154831</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.1354715360535516</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.1382164859345981</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.5133245958934032</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.1351097215794855</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.1385158896446228</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.1353207257472807</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.1384704283305577</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.1352997637457318</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.1388929060527257</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.5163826998689384</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.1355980067617363</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.1385036802717618</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.1353771403017971</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.1381366433841842</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.1350750736892223</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.1391438394784927</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.1357509518663088</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.1385799369641713</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.1352474573585722</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.1388583364231246</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.5155089558759284</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.1350660620050298</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.1385301053524017</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.135304046380851</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.1389995962381363</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.1354909481273757</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.1385207240070616</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.1351873827063375</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.1386295301573617</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.1348211264444722</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.1387768377150808</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.5163826998689384</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.1356765793429481</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.1391460980687823</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.5072083879423329</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.1351440983513991</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.1383715133581843</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.1354608585437139</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.1388668013470513</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.1355016595787472</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.1389491291982787</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.1353519840372933</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.1388842612504959</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.1355095994141367</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.1380367704800197</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.1351392954174015</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.1384073559726988</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.5163826998689384</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.1354399994015694</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.1394929076944079</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.1351980331043402</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.1394559421709606</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.5159458278724334</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.1354506899499231</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.1388980086360659</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.5102664919178681</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.1350958454940054</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.138845688530377</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.1352966999014219</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.1386786965387208</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.5146352118829183</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.1351592027478748</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.1387813442519733</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.1352062039077282</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.1383945047855377</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.1350216118411885</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.13959815459592</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.1351698643217484</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.1382243228810174</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.1348076580713193</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.1388832799025944</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.1352763229774104</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.13801138315882</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.1352026061051422</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.1379678291933877</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.5163826998689384</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.1353026986536053</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.1387370580009052</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.5006553079947575</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.1353564877063036</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.1381002643278667</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.135424408233828</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.1385855972766876</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.5063346439493228</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.1346473660733965</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.138792444552694</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.5159458278724334</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.1353266342646546</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.1384426121200834</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.5054608999563128</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.1351481053150362</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.138434608067785</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.1356098215199179</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.138450702386243</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.5028396679772826</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.1349182044052415</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.1378809426512037</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.1346947554912832</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.138532036117145</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.5159458278724334</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.1355344661408001</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.1381932752473014</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.1357806821664174</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.1382273233362607</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.5058977719528178</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.1349073381473621</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.1395218553287642</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.5141983398864133</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.1350295893434021</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.1394337766936847</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.5028396679772826</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.1352482516732481</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.1380921719329698</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.1348363417718146</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.1380018645099231</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.5076452599388379</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.1352950421472391</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.137971713074616</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.5080821319353429</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.1351315149416526</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.1379298205886568</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.5146352118829183</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.1353705090781053</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.1378551551273891</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.5054608999563128</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.135229807967941</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.1394220186131341</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.5264307557885539</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.1351076294150617</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.1380050341997828</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.5067715159458279</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.1347238390396039</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.1388140129191535</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.1351842199348741</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.1392973789146968</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.5115771079073831</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.135103409902917</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.1379180625081062</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.1354515941606628</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.1381867762122835</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.5054608999563128</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.1354846391412947</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.1389931653227125</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.5107033639143731</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.1349570823626386</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.1381535530090332</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.508519003931848</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.1350167395753993</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.1382164838058608</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.1347496114257309</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.1383788479225976</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.1351594933205181</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.1391947194933891</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.5128877238968982</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.1347395893600252</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.1377208999225072</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.5120139799038882</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.1342840501003795</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.1395725927182606</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.5124508519003932</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.1350694669203626</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.1379829666444234</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.5185670598514636</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.1349181884692775</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.1380611392004149</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.508955875928353</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.134693362025751</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.1380531447274344</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.509829619921363</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.1352074001398351</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.1391811626298087</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.5216251638269986</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.1351049681090646</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.1390903911420277</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.1346364104085498</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.1378724245088441</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.5185670598514636</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.135117750407921</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.1378264916794641</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.5111402359108781</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.1347920296506749</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.1380368524364063</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.5150720838794234</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.4900990099009901</v>
       </c>
     </row>
   </sheetData>

--- a/FC_figure_bank/ProteinLossAccDF.xlsx
+++ b/FC_figure_bank/ProteinLossAccDF.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1676439217784826</v>
+        <v>0.1723290848381379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1696307328012255</v>
+        <v>0.1719144814544254</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2329466357308585</v>
+        <v>0.3848653667595172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2360594795539034</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183027157888693</v>
+        <v>0.2136023184832405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1635587016741435</v>
+        <v>0.1812802635961109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2552204176334107</v>
+        <v>0.159238625812442</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4591078066914498</v>
+        <v>0.09833024118738404</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1623979890171219</v>
+        <v>0.1900286315118565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1505274789200889</v>
+        <v>0.1612567222780651</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3494199535962877</v>
+        <v>0.22330547818013</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4851301115241636</v>
+        <v>0.2968460111317254</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1569006377283265</v>
+        <v>0.1806378198020598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1478722459740109</v>
+        <v>0.1522755987114376</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3846867749419954</v>
+        <v>0.2460538532961931</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4981412639405204</v>
+        <v>0.4768089053803339</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1527434631305582</v>
+        <v>0.1756677088492057</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1445919987228182</v>
+        <v>0.1528569559256236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3870069605568445</v>
+        <v>0.3012999071494893</v>
       </c>
       <c r="E6" t="n">
-        <v>0.533457249070632</v>
+        <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1514334731242236</v>
+        <v>0.1698544389184783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1413014498021868</v>
+        <v>0.1498798595534431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4004640371229699</v>
+        <v>0.3207985143918292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5408921933085502</v>
+        <v>0.4471243042671614</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1498451866209507</v>
+        <v>0.1685838922858238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.139092344376776</v>
+        <v>0.1498613556226095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.419953596287703</v>
+        <v>0.3384401114206128</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.4322820037105751</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1468685212380746</v>
+        <v>0.1644342887927504</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1383607519997491</v>
+        <v>0.1473151511616177</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4296983758700696</v>
+        <v>0.3714020427112349</v>
       </c>
       <c r="E9" t="n">
-        <v>0.550185873605948</v>
+        <v>0.4601113172541744</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1448344704421128</v>
+        <v>0.1634899763499989</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1387677565217018</v>
+        <v>0.1465466568867365</v>
       </c>
       <c r="D10" t="n">
-        <v>0.451508120649652</v>
+        <v>0.3774373259052925</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5446096654275093</v>
+        <v>0.4879406307977737</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1468660748180221</v>
+        <v>0.1611195057630539</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1390961441728804</v>
+        <v>0.1461570213238398</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4334106728538283</v>
+        <v>0.3741875580315692</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.4712430426716141</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1459125197109054</v>
+        <v>0.1590121493620031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1380203631189134</v>
+        <v>0.1438322357005543</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4348027842227378</v>
+        <v>0.3913649025069638</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.4860853432282004</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1445635522113127</v>
+        <v>0.1594902881804635</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1379475047190984</v>
+        <v>0.1441242413388358</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4450116009280742</v>
+        <v>0.39322191272052</v>
       </c>
       <c r="E13" t="n">
-        <v>0.550185873605948</v>
+        <v>0.5139146567717996</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.143896139719907</v>
+        <v>0.1555411351077697</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343873052133454</v>
+        <v>0.1424973996149169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4473317865429234</v>
+        <v>0.4206128133704735</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1425298632067793</v>
+        <v>0.1557331904768944</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1363174344102542</v>
+        <v>0.1415107390946812</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4580046403712297</v>
+        <v>0.4201485608170845</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5576208178438662</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1438239966245259</v>
+        <v>0.1520496335099725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1362455089886983</v>
+        <v>0.1419184936417474</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4459396751740139</v>
+        <v>0.4289693593314763</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5817843866171004</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1428891494870186</v>
+        <v>0.1546756695298588</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1375930905342102</v>
+        <v>0.1415156068073379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4529002320185615</v>
+        <v>0.425255338904364</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5427509293680297</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1428180102478055</v>
+        <v>0.152306409443126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138894013232655</v>
+        <v>0.1419073368112246</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4682134570765661</v>
+        <v>0.4345403899721448</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5120593692022264</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1404480914420941</v>
+        <v>0.1490823543247055</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1369926383097967</v>
+        <v>0.1416463760866059</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4793503480278422</v>
+        <v>0.4498607242339833</v>
       </c>
       <c r="E19" t="n">
-        <v>0.550185873605948</v>
+        <v>0.5064935064935064</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1390880679382998</v>
+        <v>0.1532548595877255</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1380747076537874</v>
+        <v>0.1402974410189523</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4812064965197216</v>
+        <v>0.4401114206128134</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1423660944051602</v>
+        <v>0.150275183512884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.135682730211152</v>
+        <v>0.1401288343800439</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4709976798143852</v>
+        <v>0.4535747446610957</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5576208178438662</v>
+        <v>0.4972170686456401</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1408969904570019</v>
+        <v>0.1487947807592504</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1354142700632413</v>
+        <v>0.1392818176084095</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4793503480278422</v>
+        <v>0.457753017641597</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1422155801864231</v>
+        <v>0.1485747212872786</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1367063356770409</v>
+        <v>0.1392771750688553</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4645011600928074</v>
+        <v>0.4526462395543175</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1410824266426703</v>
+        <v>0.1475757478791125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1357809934351179</v>
+        <v>0.1399286381072468</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4802784222737819</v>
+        <v>0.4795728876508821</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1399950838702566</v>
+        <v>0.1502564943888608</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1358725883894497</v>
+        <v>0.1388450753357675</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4816705336426914</v>
+        <v>0.4675023212627669</v>
       </c>
       <c r="E25" t="n">
-        <v>0.550185873605948</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138055975384572</v>
+        <v>0.1486175301320413</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1364762634038925</v>
+        <v>0.1386891346838739</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5011600928074246</v>
+        <v>0.4749303621169916</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1400637300137211</v>
+        <v>0.1459163243279737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1349950755635897</v>
+        <v>0.139284759759903</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4779582366589327</v>
+        <v>0.4851439182915506</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.140855962958406</v>
+        <v>0.1471148299820283</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1359536084863875</v>
+        <v>0.1403844803571701</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4779582366589327</v>
+        <v>0.4809656453110492</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5483271375464684</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1396280029679046</v>
+        <v>0.1457661995116402</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1347909520069758</v>
+        <v>0.139352393647035</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4853828306264501</v>
+        <v>0.4763231197771588</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.14012241670314</v>
+        <v>0.1460167358026785</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1351498853829172</v>
+        <v>0.1387246002753576</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4723897911832947</v>
+        <v>0.4800371402042711</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1388413932393579</v>
+        <v>0.1447868415099733</v>
       </c>
       <c r="C31" t="n">
-        <v>0.133880474501186</v>
+        <v>0.1395060626996888</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4839907192575406</v>
+        <v>0.4832869080779944</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13913134616964</v>
+        <v>0.1455479154691977</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1355362501409319</v>
+        <v>0.1395307208100955</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4895591647331787</v>
+        <v>0.4930362116991643</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1361402128549183</v>
+        <v>0.1444971486926079</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1357540753152635</v>
+        <v>0.1399114910099241</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5020881670533642</v>
+        <v>0.4911792014856082</v>
       </c>
       <c r="E33" t="n">
-        <v>0.550185873605948</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1404818018131396</v>
+        <v>0.1443176659591058</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1364356180032094</v>
+        <v>0.1382428366276953</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4858468677494199</v>
+        <v>0.4846796657381616</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5706319702602231</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1372874924803481</v>
+        <v>0.14354137594209</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1351937353610992</v>
+        <v>0.1391244307160378</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5011600928074246</v>
+        <v>0.5060352831940576</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.138652158791528</v>
+        <v>0.1442090128274525</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1349196483691533</v>
+        <v>0.1388038554125362</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4960556844547564</v>
+        <v>0.4870009285051068</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1379035119624699</v>
+        <v>0.1447513208669775</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1350050866603851</v>
+        <v>0.1389943187435468</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5099767981438516</v>
+        <v>0.4953574744661096</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1380965350305333</v>
+        <v>0.1437769957325038</v>
       </c>
       <c r="C38" t="n">
-        <v>0.134187891251511</v>
+        <v>0.1387855286399523</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4969837587006961</v>
+        <v>0.4860724233983287</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1382033686865778</v>
+        <v>0.1462261860861498</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1364209362202221</v>
+        <v>0.1392533994383282</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5034802784222738</v>
+        <v>0.4842154131847725</v>
       </c>
       <c r="E39" t="n">
-        <v>0.550185873605948</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1391751097843927</v>
+        <v>0.1451399955241119</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1353071762455834</v>
+        <v>0.1382865433891614</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5011600928074246</v>
+        <v>0.4921077065923863</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1396939572604264</v>
+        <v>0.143232968142804</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1343685852156745</v>
+        <v>0.1403415335549248</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4904872389791183</v>
+        <v>0.4944289693593314</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1389137361856068</v>
+        <v>0.1437581150847323</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1365942102339533</v>
+        <v>0.1385414484474394</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4923433874709977</v>
+        <v>0.4967502321262767</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1380742266774178</v>
+        <v>0.1436798331492087</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1347931234372987</v>
+        <v>0.1395688239071104</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5053364269141531</v>
+        <v>0.5046425255338904</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5613382899628253</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1383970368872671</v>
+        <v>0.1428088015493225</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1345710514320267</v>
+        <v>0.1380202099680901</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4909512761020882</v>
+        <v>0.4958217270194986</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1376656245659379</v>
+        <v>0.1425819596385255</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1343224073449771</v>
+        <v>0.1382435138026873</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5062645011600928</v>
+        <v>0.4986072423398329</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5427509293680297</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1364813536843833</v>
+        <v>0.1421245866838624</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1346840403146214</v>
+        <v>0.138718622426192</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5020881670533642</v>
+        <v>0.5125348189415042</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5539033457249071</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1383426704389208</v>
+        <v>0.1444018104058855</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1326939115921656</v>
+        <v>0.1379176444477505</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5053364269141531</v>
+        <v>0.4967502321262767</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5780669144981413</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1354348297943087</v>
+        <v>0.1419421151718673</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1350807191597091</v>
+        <v>0.1381170426805814</v>
       </c>
       <c r="D48" t="n">
-        <v>0.511368909512761</v>
+        <v>0.5088207985143919</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5390334572490706</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1373955050812048</v>
+        <v>0.1428727058365065</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1362032675080829</v>
+        <v>0.1386935942702823</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5197215777262181</v>
+        <v>0.500464252553389</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5613382899628253</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1369700182010146</v>
+        <v>0.142170503954677</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1345390561554167</v>
+        <v>0.1397065685855018</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5034802784222738</v>
+        <v>0.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1359759122133255</v>
+        <v>0.1432363329564824</v>
       </c>
       <c r="C51" t="n">
-        <v>0.134967608584298</v>
+        <v>0.137761597832044</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5197215777262181</v>
+        <v>0.5092850510677809</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5390334572490706</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.136504891602432</v>
+        <v>0.1413028853781083</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1345545119709439</v>
+        <v>0.1380581706762314</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5118329466357309</v>
+        <v>0.500464252553389</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1375392243704375</v>
+        <v>0.1427222735741559</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1347284913063049</v>
+        <v>0.140148579246468</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5099767981438516</v>
+        <v>0.5018570102135562</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1365399378187516</v>
+        <v>0.1415015480974141</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1325496435165405</v>
+        <v>0.1379703804850578</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5276102088167053</v>
+        <v>0.5269266480965645</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1356568719972582</v>
+        <v>0.1432013846933842</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1352977909975582</v>
+        <v>0.1382028824753231</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5062645011600928</v>
+        <v>0.5204271123491179</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1348401733181056</v>
+        <v>0.1436210423707962</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1349149511920081</v>
+        <v>0.1396391193072001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.522969837587007</v>
+        <v>0.5069637883008357</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1360639767611728</v>
+        <v>0.1424377621973262</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1371073648333549</v>
+        <v>0.1394131456812223</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5290023201856149</v>
+        <v>0.5051067780872794</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5315985130111525</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1356389748261255</v>
+        <v>0.1426277471815839</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1352045155233807</v>
+        <v>0.1387426795230972</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5187935034802784</v>
+        <v>0.5046425255338904</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5223048327137546</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.138542065725607</v>
+        <v>0.141900261535364</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1356689731280009</v>
+        <v>0.1386313248011801</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5048723897911833</v>
+        <v>0.5046425255338904</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5390334572490706</v>
+        <v>0.5677179962894249</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1358698744545965</v>
+        <v>0.1423140336923739</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1330464540256394</v>
+        <v>0.138380797372924</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5211136890951276</v>
+        <v>0.5120705663881151</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5631970260223048</v>
+        <v>0.5788497217068646</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1344964175539858</v>
+        <v>0.1408532686969813</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1330730699830585</v>
+        <v>0.137630444433954</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5192575406032482</v>
+        <v>0.520891364902507</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.5769944341372912</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1361489291576778</v>
+        <v>0.1412639823906562</v>
       </c>
       <c r="C62" t="n">
-        <v>0.134896554880672</v>
+        <v>0.1391100875205464</v>
       </c>
       <c r="D62" t="n">
-        <v>0.508584686774942</v>
+        <v>0.5125348189415042</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5613382899628253</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1354379390968996</v>
+        <v>0.1416109046515296</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1350411011113061</v>
+        <v>0.1377230766746733</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5122969837587007</v>
+        <v>0.5129990714948932</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5677179962894249</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1339102396193673</v>
+        <v>0.139844341094003</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1339687473244137</v>
+        <v>0.138977179924647</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5187935034802784</v>
+        <v>0.5246053853296193</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5576208178438662</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1351637737277676</v>
+        <v>0.1402344092288438</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1343326394756635</v>
+        <v>0.1388048513068093</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5155452436194896</v>
+        <v>0.521355617455896</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1356096876894727</v>
+        <v>0.1408617779174272</v>
       </c>
       <c r="C66" t="n">
-        <v>0.13465250035127</v>
+        <v>0.1392860470546616</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5201856148491879</v>
+        <v>0.5125348189415042</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5613382899628253</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1357834093710955</v>
+        <v>0.1402840162901317</v>
       </c>
       <c r="C67" t="n">
-        <v>0.135033850868543</v>
+        <v>0.1388315674331453</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5183294663573086</v>
+        <v>0.5199628597957289</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5799256505576208</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1333621258244795</v>
+        <v>0.1418212542639059</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1333920392725203</v>
+        <v>0.1384167828493648</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5392111368909512</v>
+        <v>0.5060352831940576</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5371747211895911</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1355935652904651</v>
+        <v>0.1407729575739187</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1333070885803964</v>
+        <v>0.1388043107257949</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5206496519721577</v>
+        <v>0.5227483751160631</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1343227517517174</v>
+        <v>0.1408898598131011</v>
       </c>
       <c r="C70" t="n">
-        <v>0.133921162949668</v>
+        <v>0.1375052548117108</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5146171693735498</v>
+        <v>0.5120705663881151</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5565862708719852</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1373487962957691</v>
+        <v>0.1396293166805716</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1356245229641596</v>
+        <v>0.1385717656877306</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5044083526682135</v>
+        <v>0.5232126276694522</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1337832096306717</v>
+        <v>0.1397229652194416</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1351232975721359</v>
+        <v>0.1387483593490389</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5294663573085847</v>
+        <v>0.5246053853296193</v>
       </c>
       <c r="E72" t="n">
-        <v>0.533457249070632</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1348243309732746</v>
+        <v>0.1411900320912109</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1350995832019382</v>
+        <v>0.1389002866215176</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5303944315545244</v>
+        <v>0.5222841225626741</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1346176413490492</v>
+        <v>0.1404470996383358</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1338755480117268</v>
+        <v>0.1382511076000002</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5225058004640372</v>
+        <v>0.5139275766016713</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5613382899628253</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1338057029334938</v>
+        <v>0.1415237446918207</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1341593522164557</v>
+        <v>0.1389455927742852</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5243619489559165</v>
+        <v>0.5190343546889508</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1353073922150275</v>
+        <v>0.1397206577308038</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1339330789115694</v>
+        <v>0.1390567049384117</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5136890951276102</v>
+        <v>0.5269266480965645</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5762081784386617</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1348371343577609</v>
+        <v>0.14001025084187</v>
       </c>
       <c r="C77" t="n">
-        <v>0.133758366935783</v>
+        <v>0.1376282042927212</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5327146171693735</v>
+        <v>0.5334261838440112</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5631970260223048</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1343530528247356</v>
+        <v>0.1384746511192883</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1335456114676264</v>
+        <v>0.1392783530884319</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5303944315545244</v>
+        <v>0.5250696378830083</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1339591125793317</v>
+        <v>0.1409950247582267</v>
       </c>
       <c r="C79" t="n">
-        <v>0.134520732694202</v>
+        <v>0.1396389860245917</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5308584686774942</v>
+        <v>0.5204271123491179</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1346516657401534</v>
+        <v>0.1387443472357357</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1349206914504369</v>
+        <v>0.1391777934299575</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5262180974477958</v>
+        <v>0.5269266480965645</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5446096654275093</v>
+        <v>0.5677179962894249</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1337023747756201</v>
+        <v>0.1401803589919034</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1358697199159198</v>
+        <v>0.1378454971644613</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5350348027842228</v>
+        <v>0.5292479108635098</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5446096654275093</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1340946704149246</v>
+        <v>0.1399801362525014</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1339154798123572</v>
+        <v>0.1393123235967424</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5206496519721577</v>
+        <v>0.5190343546889508</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1332145736497991</v>
+        <v>0.1400335010360269</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1356647825903363</v>
+        <v>0.1391451325681475</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5322505800464037</v>
+        <v>0.5162488393686165</v>
       </c>
       <c r="E83" t="n">
-        <v>0.550185873605948</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.134951580534963</v>
+        <v>0.138976118143867</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1358371691571342</v>
+        <v>0.1383169550034735</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5146171693735498</v>
+        <v>0.5306406685236769</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5483271375464684</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1342960931360722</v>
+        <v>0.1404549082850709</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1329345810744497</v>
+        <v>0.1376019302341673</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5299303944315545</v>
+        <v>0.5273909006499535</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1344682718901073</v>
+        <v>0.1400719981859712</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1347157814436489</v>
+        <v>0.1382004511025217</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5174013921113689</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5371747211895911</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1353899479350623</v>
+        <v>0.1385828883332365</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1329371747043398</v>
+        <v>0.1377873478664292</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5201856148491879</v>
+        <v>0.5329619312906221</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5613382899628253</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1339472196996212</v>
+        <v>0.1402775522540597</v>
       </c>
       <c r="C88" t="n">
-        <v>0.134894342886077</v>
+        <v>0.1398084776269065</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5280742459396752</v>
+        <v>0.5255338904363974</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1347749857779811</v>
+        <v>0.1381264990743469</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1343055508202977</v>
+        <v>0.139308845003446</v>
       </c>
       <c r="D89" t="n">
-        <v>0.525754060324826</v>
+        <v>0.541782729805014</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5408921933085502</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1340118392425425</v>
+        <v>0.1392246708273888</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1355675558249156</v>
+        <v>0.1401644282870823</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5424593967517402</v>
+        <v>0.5334261838440112</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5483271375464684</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1349900768083685</v>
+        <v>0.1397573025349308</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1344993892643187</v>
+        <v>0.1384569489293628</v>
       </c>
       <c r="D91" t="n">
-        <v>0.525754060324826</v>
+        <v>0.5157845868152274</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1355285725611098</v>
+        <v>0.1383197482894449</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1364957119027773</v>
+        <v>0.1375455343061023</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5197215777262181</v>
+        <v>0.5232126276694522</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5743494423791822</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1337443283375572</v>
+        <v>0.1388819178237635</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1338506291309992</v>
+        <v>0.1399673339393404</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5225058004640372</v>
+        <v>0.5297121634168988</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5743494423791822</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1350741655949284</v>
+        <v>0.1387400982134482</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1363576062851482</v>
+        <v>0.1378626310163074</v>
       </c>
       <c r="D94" t="n">
-        <v>0.522969837587007</v>
+        <v>0.5227483751160631</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5724907063197026</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1344315712066258</v>
+        <v>0.1392626069924411</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1328614271349377</v>
+        <v>0.1373985467685593</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5234338747099768</v>
+        <v>0.5264623955431755</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.5788497217068646</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1334931885494905</v>
+        <v>0.1382997647366103</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1336300075054169</v>
+        <v>0.1378788045710987</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5294663573085847</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133292275316575</v>
+        <v>0.1402088848545271</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1329319584700796</v>
+        <v>0.1391212542851766</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5350348027842228</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5706319702602231</v>
+        <v>0.5565862708719852</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1337127199067789</v>
+        <v>0.1390704733922201</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1348853740427229</v>
+        <v>0.1388661422663265</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5104408352668214</v>
+        <v>0.5259981429897864</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5408921933085502</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1327291301944677</v>
+        <v>0.1394002183395273</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1335450493627124</v>
+        <v>0.1384884822699759</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5378190255220417</v>
+        <v>0.5148560817084494</v>
       </c>
       <c r="E99" t="n">
-        <v>0.550185873605948</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1336107372361071</v>
+        <v>0.1398072347921484</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1343898326158524</v>
+        <v>0.1395551918281449</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5243619489559165</v>
+        <v>0.5324976787372331</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1321072442566647</v>
+        <v>0.139445822685957</v>
       </c>
       <c r="C101" t="n">
-        <v>0.134482310877906</v>
+        <v>0.1389923128816817</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5303944315545244</v>
+        <v>0.5236768802228412</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5762081784386617</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1333994709831827</v>
+        <v>0.1393437414046596</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1364997145202425</v>
+        <v>0.1396795428461499</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5271461716937355</v>
+        <v>0.5357474466109564</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4814126394052045</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1343988074975855</v>
+        <v>0.1395199307624032</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1347685505946477</v>
+        <v>0.1396057547794448</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5382830626450116</v>
+        <v>0.5255338904363974</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1333822599228691</v>
+        <v>0.1376661965075661</v>
       </c>
       <c r="C104" t="n">
-        <v>0.131153152220779</v>
+        <v>0.1397897940542963</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5252900232018561</v>
+        <v>0.5357474466109564</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.5083487940630798</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1339830004555338</v>
+        <v>0.1379403509199619</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1335704798499743</v>
+        <v>0.1390854898426268</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5280742459396752</v>
+        <v>0.5301764159702879</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5297397769516728</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.132883788250825</v>
+        <v>0.1379633289487923</v>
       </c>
       <c r="C106" t="n">
-        <v>0.135318576461739</v>
+        <v>0.1398107070061896</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5443155452436195</v>
+        <v>0.5227483751160631</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5631970260223048</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1315217022510136</v>
+        <v>0.1386912007103948</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1364624268478817</v>
+        <v>0.1379303874240981</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5433874709976798</v>
+        <v>0.5403899721448467</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.5677179962894249</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1332977414131165</v>
+        <v>0.138979568858357</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1341428500082758</v>
+        <v>0.1384632777836588</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5262180974477958</v>
+        <v>0.5255338904363974</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5743494423791822</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1326619395438363</v>
+        <v>0.1385716846322312</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1336539859573046</v>
+        <v>0.1401783087187343</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5415313225058005</v>
+        <v>0.5269266480965645</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5539033457249071</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.133381400257349</v>
+        <v>0.1381423078915652</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1345325567656093</v>
+        <v>0.1390314830674065</v>
       </c>
       <c r="D110" t="n">
-        <v>0.531322505800464</v>
+        <v>0.5301764159702879</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1333337811862721</v>
+        <v>0.1382040252142093</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1336974451939265</v>
+        <v>0.1388103746705585</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5317865429234339</v>
+        <v>0.5287836583101208</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5706319702602231</v>
+        <v>0.5677179962894249</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1316622002598117</v>
+        <v>0.1386590488255024</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1330299981766277</v>
+        <v>0.1379752730329832</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5373549883990719</v>
+        <v>0.5301764159702879</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5706319702602231</v>
+        <v>0.5695732838589982</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1313991215737427</v>
+        <v>0.1383790614850381</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1338269255227513</v>
+        <v>0.1396031570103433</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5341067285382831</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5743494423791822</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.130549348452512</v>
+        <v>0.137838152839857</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1355714201927185</v>
+        <v>0.1383265124426948</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5433874709976798</v>
+        <v>0.5352831940575673</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5353159851301115</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1313174147816265</v>
+        <v>0.1393269392497399</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1340515737732252</v>
+        <v>0.1396839660074976</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5368909512761021</v>
+        <v>0.532033426183844</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5631970260223048</v>
+        <v>0.575139146567718</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1334270891897819</v>
+        <v>0.1375467487994362</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1353368643257353</v>
+        <v>0.1384702920913696</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5350348027842228</v>
+        <v>0.5338904363974002</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5315985130111525</v>
+        <v>0.5677179962894249</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1321111794780283</v>
+        <v>0.1384627130978248</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1343185562226507</v>
+        <v>0.1388419535424974</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5354988399071926</v>
+        <v>0.5399257195914577</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1344760226852754</v>
+        <v>0.1377248211818583</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1324165761470795</v>
+        <v>0.1391420678959953</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5248259860788863</v>
+        <v>0.5399257195914577</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1304560695939204</v>
+        <v>0.1371663962216938</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1352927303976483</v>
+        <v>0.1385644310050541</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5354988399071926</v>
+        <v>0.5413184772516249</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5074349442379182</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1320278962307116</v>
+        <v>0.1367264166474342</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1333231056729952</v>
+        <v>0.1380564644932747</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5262180974477958</v>
+        <v>0.542711234911792</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1319417342105333</v>
+        <v>0.1381061002612114</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1355384323332045</v>
+        <v>0.1406911032067405</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5211136890951276</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1323347185902736</v>
+        <v>0.1370859983212808</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1337342494063907</v>
+        <v>0.1390517445074188</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5466357308584687</v>
+        <v>0.5362116991643454</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1315945187473998</v>
+        <v>0.1377198753111503</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1352059361007479</v>
+        <v>0.1384352263477114</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5396751740139211</v>
+        <v>0.541782729805014</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.130006553933901</v>
+        <v>0.1367241998805719</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1341497020588981</v>
+        <v>0.1389065956075986</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5433874709976798</v>
+        <v>0.5473537604456824</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1317312840153189</v>
+        <v>0.1373307168045465</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1339255803161197</v>
+        <v>0.1414718271957504</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5354988399071926</v>
+        <v>0.5403899721448467</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1319238543510437</v>
+        <v>0.1381093281156877</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1346872035000059</v>
+        <v>0.1392123210761282</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5452436194895591</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5204460966542751</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1307988460449611</v>
+        <v>0.1379622455467196</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1353340513176388</v>
+        <v>0.1382587941156493</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5354988399071926</v>
+        <v>0.5371402042711235</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1325415017850259</v>
+        <v>0.1358217055744985</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1365122753712866</v>
+        <v>0.1392412434021632</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5341067285382831</v>
+        <v>0.5408542246982359</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1329431233598906</v>
+        <v>0.1373786838615642</v>
       </c>
       <c r="C129" t="n">
-        <v>0.134398797319995</v>
+        <v>0.1407334928711255</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5290023201856149</v>
+        <v>0.5408542246982359</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5204460966542751</v>
+        <v>0.5046382189239332</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1304489424561753</v>
+        <v>0.1366738549926702</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1344641099373499</v>
+        <v>0.1399158272478316</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5354988399071926</v>
+        <v>0.5389972144846796</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5390334572490706</v>
+        <v>0.5732838589981447</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1313522278386004</v>
+        <v>0.1352939441361848</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1354167196485731</v>
+        <v>0.1393216227491697</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5373549883990719</v>
+        <v>0.5431754874651811</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5631970260223048</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1308173859382377</v>
+        <v>0.1367964845369844</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1325989704993036</v>
+        <v>0.1378427884644932</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5225058004640372</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5706319702602231</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1314641544047524</v>
+        <v>0.1372984836206717</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1351473232110341</v>
+        <v>0.1374972355034616</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5373549883990719</v>
+        <v>0.5394614670380687</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5446096654275093</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1301242912955144</v>
+        <v>0.1372949752737494</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1324551146891382</v>
+        <v>0.1414845105674532</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5470997679814386</v>
+        <v>0.5413184772516249</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.131533397909473</v>
+        <v>0.1375112242120154</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1351515667306052</v>
+        <v>0.1392186971174346</v>
       </c>
       <c r="D135" t="n">
-        <v>0.540139211136891</v>
+        <v>0.5413184772516249</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5427509293680297</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1313165866715067</v>
+        <v>0.1363748734926476</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1356010569466485</v>
+        <v>0.1398572135302756</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5470997679814386</v>
+        <v>0.5297121634168988</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5204460966542751</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1299449711599771</v>
+        <v>0.1359812520882663</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1403660062286589</v>
+        <v>0.1389798944195112</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5410672853828307</v>
+        <v>0.5380687093779016</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5594795539033457</v>
+        <v>0.5695732838589982</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1293897416223498</v>
+        <v>0.1369633893756305</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1337935303648313</v>
+        <v>0.1394271817472246</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5540603248259861</v>
+        <v>0.5543175487465181</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5427509293680297</v>
+        <v>0.5695732838589982</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1306319740765235</v>
+        <v>0.1368034381200285</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1359076632393731</v>
+        <v>0.1400999211602741</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5396751740139211</v>
+        <v>0.5376044568245125</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5297397769516728</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1300809337374042</v>
+        <v>0.1359286742175327</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1361706753571828</v>
+        <v>0.139860643280877</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5540603248259861</v>
+        <v>0.5348189415041783</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5687732342007435</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1322421758052181</v>
+        <v>0.1357522617806406</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1340984611047639</v>
+        <v>0.1395077448752191</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5354988399071926</v>
+        <v>0.5371402042711235</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.575139146567718</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1309637363780947</v>
+        <v>0.1362892544883139</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1367379311058256</v>
+        <v>0.1374473977420065</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5364269141531323</v>
+        <v>0.532033426183844</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5297397769516728</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1297266283894286</v>
+        <v>0.1367778409929837</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1355061795976427</v>
+        <v>0.1397217586636543</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5345707656612529</v>
+        <v>0.5352831940575673</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5836431226765799</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1319523381398005</v>
+        <v>0.1355489435441354</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1331596689091789</v>
+        <v>0.1393072679638863</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5443155452436195</v>
+        <v>0.5450324976787372</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5427509293680297</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1322957277297974</v>
+        <v>0.1365247890353203</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1349306222465303</v>
+        <v>0.1401928067207336</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5336426914153132</v>
+        <v>0.5329619312906221</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5724907063197026</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1310971471316674</v>
+        <v>0.1368331652792061</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1348363070024384</v>
+        <v>0.1386279828018612</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5387470997679814</v>
+        <v>0.5403899721448467</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5446096654275093</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1309168345349676</v>
+        <v>0.1351923300501178</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1369009671939744</v>
+        <v>0.1389769663413366</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5354988399071926</v>
+        <v>0.5445682451253482</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1315222884363988</v>
+        <v>0.1355586845208617</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1346320518189006</v>
+        <v>0.143329129450851</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5424593967517402</v>
+        <v>0.5403899721448467</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5762081784386617</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1308574137442252</v>
+        <v>0.1365667897112229</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1338579133152962</v>
+        <v>0.1395908825927311</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5378190255220417</v>
+        <v>0.5348189415041783</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1305126983891515</v>
+        <v>0.1348407952224507</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1323343300157123</v>
+        <v>0.1391408849093649</v>
       </c>
       <c r="D150" t="n">
-        <v>0.54292343387471</v>
+        <v>0.5459610027855153</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1294198075638098</v>
+        <v>0.1365869336706751</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1350907327400314</v>
+        <v>0.1406124722626474</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5373549883990719</v>
+        <v>0.541782729805014</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5371747211895911</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1301795588258435</v>
+        <v>0.1370574128540123</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1330550354388025</v>
+        <v>0.1379391658637259</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5378190255220417</v>
+        <v>0.541782729805014</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5650557620817844</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
   </sheetData>

--- a/FC_figure_bank/ProteinLossAccDF.xlsx
+++ b/FC_figure_bank/ProteinLossAccDF.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1723290848381379</v>
+        <v>0.178308833609609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1719144814544254</v>
+        <v>0.1778318451510535</v>
       </c>
       <c r="D2" t="n">
         <v>0.3848653667595172</v>
@@ -482,13 +482,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2136023184832405</v>
+        <v>0.2175736076691571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1812802635961109</v>
+        <v>0.185351366798083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.159238625812442</v>
+        <v>0.1634168987929434</v>
       </c>
       <c r="E3" t="n">
         <v>0.09833024118738404</v>
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1900286315118565</v>
+        <v>0.1938304962480769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1612567222780651</v>
+        <v>0.1657590518395106</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22330547818013</v>
+        <v>0.223769730733519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2968460111317254</v>
+        <v>0.274582560296846</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1806378198020598</v>
+        <v>0.1846487719346495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1522755987114376</v>
+        <v>0.1581595059898165</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2460538532961931</v>
+        <v>0.2479108635097493</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4768089053803339</v>
+        <v>0.4730983302411874</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1756677088492057</v>
+        <v>0.1803054283646976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1528569559256236</v>
+        <v>0.157646828227573</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3012999071494893</v>
+        <v>0.2948003714020427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.4007421150278293</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1698544389184783</v>
+        <v>0.1747675665161189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1498798595534431</v>
+        <v>0.1535916278759638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3207985143918292</v>
+        <v>0.3152274837511606</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4471243042671614</v>
+        <v>0.4304267161410019</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1685838922858238</v>
+        <v>0.1744088022147908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1498613556226095</v>
+        <v>0.153418920106358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3384401114206128</v>
+        <v>0.3263695450324977</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4322820037105751</v>
+        <v>0.4656771799628943</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1644342887927504</v>
+        <v>0.167911159203333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1473151511616177</v>
+        <v>0.1522272709343168</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3714020427112349</v>
+        <v>0.3588672237697307</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4601113172541744</v>
+        <v>0.4526901669758813</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1634899763499989</v>
+        <v>0.167983410989537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1465466568867365</v>
+        <v>0.1498514082696703</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3774373259052925</v>
+        <v>0.3751160631383473</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4879406307977737</v>
+        <v>0.5046382189239332</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1611195057630539</v>
+        <v>0.1653650924563408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1461570213238398</v>
+        <v>0.1515529917346107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3741875580315692</v>
+        <v>0.3607242339832869</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4712430426716141</v>
+        <v>0.4582560296846011</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1590121493620031</v>
+        <v>0.1642838852370486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1438322357005543</v>
+        <v>0.1481267031696108</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3913649025069638</v>
+        <v>0.3825441039925719</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4860853432282004</v>
+        <v>0.5046382189239332</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1594902881804635</v>
+        <v>0.1659492600490065</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1441242413388358</v>
+        <v>0.1512593759430779</v>
       </c>
       <c r="D13" t="n">
-        <v>0.39322191272052</v>
+        <v>0.3899721448467967</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5139146567717996</v>
+        <v>0.4730983302411874</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1555411351077697</v>
+        <v>0.1611982671653523</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1424973996149169</v>
+        <v>0.1475823703739378</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4206128133704735</v>
+        <v>0.4108635097493036</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5231910946196661</v>
+        <v>0.5176252319109462</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1557331904768944</v>
+        <v>0.1591656861059806</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1415107390946812</v>
+        <v>0.1480168344246017</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4201485608170845</v>
+        <v>0.4127205199628598</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5269016697588126</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1520496335099725</v>
+        <v>0.1566785438095822</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1419184936417474</v>
+        <v>0.1463654024733437</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4289693593314763</v>
+        <v>0.4122562674094707</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5250463821892394</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1546756695298588</v>
+        <v>0.1611335505457485</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1415156068073379</v>
+        <v>0.1481494622098075</v>
       </c>
       <c r="D17" t="n">
-        <v>0.425255338904364</v>
+        <v>0.4090064995357475</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5231910946196661</v>
+        <v>0.5009276437847866</v>
       </c>
     </row>
     <row r="18">
@@ -737,13 +737,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.152306409443126</v>
+        <v>0.1574851896832971</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1419073368112246</v>
+        <v>0.1481119079722298</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4345403899721448</v>
+        <v>0.4322191272051996</v>
       </c>
       <c r="E18" t="n">
         <v>0.5120593692022264</v>
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1490823543247055</v>
+        <v>0.1546412119094063</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1416463760866059</v>
+        <v>0.1473952987127834</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4498607242339833</v>
+        <v>0.4433611884865367</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5064935064935064</v>
+        <v>0.4935064935064935</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1532548595877255</v>
+        <v>0.1586104495560422</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1402974410189523</v>
+        <v>0.1461824087633027</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4401114206128134</v>
+        <v>0.4289693593314763</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5417439703153989</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.150275183512884</v>
+        <v>0.1565685438759187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1401288343800439</v>
+        <v>0.1461428354183833</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4535747446610957</v>
+        <v>0.4345403899721448</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4972170686456401</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1487947807592504</v>
+        <v>0.1545116910163094</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1392818176084095</v>
+        <v>0.1443893760442734</v>
       </c>
       <c r="D22" t="n">
-        <v>0.457753017641597</v>
+        <v>0.4563602599814299</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5398886827458256</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1485747212872786</v>
+        <v>0.1542064451119479</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1392771750688553</v>
+        <v>0.1447836632529894</v>
       </c>
       <c r="D23" t="n">
         <v>0.4526462395543175</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1475757478791125</v>
+        <v>0.1538160859661944</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1399286381072468</v>
+        <v>0.1464443711770905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4795728876508821</v>
+        <v>0.4740018570102136</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5417439703153989</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1502564943888608</v>
+        <v>0.1567089658449678</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1388450753357675</v>
+        <v>0.1452544033527374</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4675023212627669</v>
+        <v>0.4591457753017641</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1486175301320413</v>
+        <v>0.153515343718669</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1386891346838739</v>
+        <v>0.1450406445397271</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4749303621169916</v>
+        <v>0.4642525533890436</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5120593692022264</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1459163243279737</v>
+        <v>0.1520059069289881</v>
       </c>
       <c r="C27" t="n">
-        <v>0.139284759759903</v>
+        <v>0.1448336094617844</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4851439182915506</v>
+        <v>0.4777158774373259</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5658627087198516</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1471148299820283</v>
+        <v>0.1530282843638869</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1403844803571701</v>
+        <v>0.1450208177169164</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4809656453110492</v>
+        <v>0.4614670380687094</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1457661995116402</v>
+        <v>0.1510815826409003</v>
       </c>
       <c r="C29" t="n">
-        <v>0.139352393647035</v>
+        <v>0.1456306518779861</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4763231197771588</v>
+        <v>0.4740018570102136</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1460167358026785</v>
+        <v>0.1519728149561321</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1387246002753576</v>
+        <v>0.1451937870846854</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4800371402042711</v>
+        <v>0.4721448467966574</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1447868415099733</v>
+        <v>0.1511030845782336</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1395060626996888</v>
+        <v>0.1454434419671694</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4832869080779944</v>
+        <v>0.467966573816156</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1455479154691977</v>
+        <v>0.150914242162424</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1395307208100955</v>
+        <v>0.1454835600323147</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4930362116991643</v>
+        <v>0.4939647168059424</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5398886827458256</v>
+        <v>0.5565862708719852</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1444971486926079</v>
+        <v>0.1512070697020082</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1399114910099241</v>
+        <v>0.1468645632266998</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4911792014856082</v>
+        <v>0.4818941504178273</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5083487940630798</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1443176659591058</v>
+        <v>0.1506324778584873</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1382428366276953</v>
+        <v>0.1450703102681372</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4846796657381616</v>
+        <v>0.4735376044568245</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14354137594209</v>
+        <v>0.1495387725093786</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1391244307160378</v>
+        <v>0.1462251817186674</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5060352831940576</v>
+        <v>0.4795728876508821</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1442090128274525</v>
+        <v>0.1502827717100873</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1388038554125362</v>
+        <v>0.1446237415075302</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4870009285051068</v>
+        <v>0.479108635097493</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1447513208669775</v>
+        <v>0.1503244730479577</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1389943187435468</v>
+        <v>0.1456479926904043</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4953574744661096</v>
+        <v>0.4832869080779944</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1437769957325038</v>
+        <v>0.150272844468846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1387855286399523</v>
+        <v>0.1459116910894712</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4860724233983287</v>
+        <v>0.4828226555246054</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5398886827458256</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1462261860861498</v>
+        <v>0.151791917050586</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1392533994383282</v>
+        <v>0.145449660718441</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4842154131847725</v>
+        <v>0.4740018570102136</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1451399955241119</v>
+        <v>0.1515646804781521</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1382865433891614</v>
+        <v>0.1456245937281185</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4921077065923863</v>
+        <v>0.4805013927576602</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5640074211502782</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.143232968142804</v>
+        <v>0.1506917424061719</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1403415335549248</v>
+        <v>0.1455090617140134</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4944289693593314</v>
+        <v>0.4744661095636026</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5398886827458256</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1437581150847323</v>
+        <v>0.1503518372774124</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1385414484474394</v>
+        <v>0.1447204094794061</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4967502321262767</v>
+        <v>0.4772516248839369</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1436798331492087</v>
+        <v>0.1495533787152346</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1395688239071104</v>
+        <v>0.1458221789863375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5046425255338904</v>
+        <v>0.4879294336118848</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5269016697588126</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1428088015493225</v>
+        <v>0.1491297553567325</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1380202099680901</v>
+        <v>0.1458314326074388</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4958217270194986</v>
+        <v>0.4944289693593314</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1425819596385255</v>
+        <v>0.1484948116190293</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1382435138026873</v>
+        <v>0.1457612100574705</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4986072423398329</v>
+        <v>0.4981429897864438</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1421245866838624</v>
+        <v>0.1484322460258708</v>
       </c>
       <c r="C46" t="n">
-        <v>0.138718622426192</v>
+        <v>0.1456603556871414</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5125348189415042</v>
+        <v>0.4967502321262767</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1444018104058855</v>
+        <v>0.1504823072429965</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1379176444477505</v>
+        <v>0.1444422784778807</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4967502321262767</v>
+        <v>0.4837511606313835</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5343228200371057</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1419421151718673</v>
+        <v>0.1481845740448026</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1381170426805814</v>
+        <v>0.1452020166648759</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5088207985143919</v>
+        <v>0.5148560817084494</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1428727058365065</v>
+        <v>0.1492139188682332</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1386935942702823</v>
+        <v>0.1450116634368896</v>
       </c>
       <c r="D49" t="n">
-        <v>0.500464252553389</v>
+        <v>0.4902506963788301</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.142170503954677</v>
+        <v>0.1483708812909968</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1397065685855018</v>
+        <v>0.1453327371014489</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5</v>
+        <v>0.5009285051067781</v>
       </c>
       <c r="E50" t="n">
-        <v>0.562152133580705</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1432363329564824</v>
+        <v>0.1488088627948481</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137761597832044</v>
+        <v>0.1453811418679025</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5092850510677809</v>
+        <v>0.5023212627669452</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1413028853781083</v>
+        <v>0.1468099458690952</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1380581706762314</v>
+        <v>0.1458145024047958</v>
       </c>
       <c r="D52" t="n">
-        <v>0.500464252553389</v>
+        <v>0.5088207985143919</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1427222735741559</v>
+        <v>0.1494051213650142</v>
       </c>
       <c r="C53" t="n">
-        <v>0.140148579246468</v>
+        <v>0.1471048403117392</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5018570102135562</v>
+        <v>0.4907149489322191</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1415015480974141</v>
+        <v>0.148143816520186</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1379703804850578</v>
+        <v>0.1452003700865639</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5269266480965645</v>
+        <v>0.5064995357474467</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1432013846933842</v>
+        <v>0.1491601905402015</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1382028824753231</v>
+        <v>0.1454799895485242</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5204271123491179</v>
+        <v>0.5055710306406686</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1436210423707962</v>
+        <v>0.1503698931020849</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1396391193072001</v>
+        <v>0.1466088005238109</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5069637883008357</v>
+        <v>0.4935004642525534</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5380333951762524</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1424377621973262</v>
+        <v>0.148165296544047</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1394131456812223</v>
+        <v>0.1461320163475143</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5051067780872794</v>
+        <v>0.5055710306406686</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5231910946196661</v>
+        <v>0.5157699443413729</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1426277471815839</v>
+        <v>0.1486023234970429</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1387426795230972</v>
+        <v>0.1458760508232647</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5046425255338904</v>
+        <v>0.4930362116991643</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.141900261535364</v>
+        <v>0.148181268835769</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1386313248011801</v>
+        <v>0.146817819111877</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5046425255338904</v>
+        <v>0.4883936861652739</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5677179962894249</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1423140336923739</v>
+        <v>0.1488244093078024</v>
       </c>
       <c r="C60" t="n">
-        <v>0.138380797372924</v>
+        <v>0.1458660811185837</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5120705663881151</v>
+        <v>0.500464252553389</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5788497217068646</v>
+        <v>0.575139146567718</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1408532686969813</v>
+        <v>0.1467859854592997</v>
       </c>
       <c r="C61" t="n">
-        <v>0.137630444433954</v>
+        <v>0.1444922983646393</v>
       </c>
       <c r="D61" t="n">
-        <v>0.520891364902507</v>
+        <v>0.5111420612813371</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5769944341372912</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1412639823906562</v>
+        <v>0.1471086749259163</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1391100875205464</v>
+        <v>0.1462200399902132</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5125348189415042</v>
+        <v>0.5</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="63">
@@ -1502,13 +1502,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1416109046515296</v>
+        <v>0.1480410145047833</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1377230766746733</v>
+        <v>0.1463911144269837</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5129990714948932</v>
+        <v>0.5116063138347261</v>
       </c>
       <c r="E63" t="n">
         <v>0.5677179962894249</v>
@@ -1519,13 +1519,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.139844341094003</v>
+        <v>0.1460846947396503</v>
       </c>
       <c r="C64" t="n">
-        <v>0.138977179924647</v>
+        <v>0.1469647735357285</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5246053853296193</v>
+        <v>0.5204271123491179</v>
       </c>
       <c r="E64" t="n">
         <v>0.5528756957328386</v>
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1402344092288438</v>
+        <v>0.1468311044223168</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1388048513068093</v>
+        <v>0.1467151153418753</v>
       </c>
       <c r="D65" t="n">
-        <v>0.521355617455896</v>
+        <v>0.5129990714948932</v>
       </c>
       <c r="E65" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5139146567717996</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1408617779174272</v>
+        <v>0.1465477417497074</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1392860470546616</v>
+        <v>0.1462329659197066</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5125348189415042</v>
+        <v>0.5037140204271123</v>
       </c>
       <c r="E66" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1402840162901317</v>
+        <v>0.1469919637722128</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1388315674331453</v>
+        <v>0.1456722170114517</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5199628597957289</v>
+        <v>0.5051067780872794</v>
       </c>
       <c r="E67" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1418212542639059</v>
+        <v>0.1482891074436552</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1384167828493648</v>
+        <v>0.145217922826608</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5060352831940576</v>
+        <v>0.4986072423398329</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="69">
@@ -1604,13 +1604,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1407729575739187</v>
+        <v>0.1465928037376965</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1388043107257949</v>
+        <v>0.1457940820190642</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5227483751160631</v>
+        <v>0.5157845868152274</v>
       </c>
       <c r="E69" t="n">
         <v>0.5547309833024119</v>
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1408898598131011</v>
+        <v>0.1461670034948517</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1375052548117108</v>
+        <v>0.1455022096633911</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5120705663881151</v>
+        <v>0.5129990714948932</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5565862708719852</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1396293166805716</v>
+        <v>0.1456223710933152</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1385717656877306</v>
+        <v>0.1466697371668286</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5232126276694522</v>
+        <v>0.5250696378830083</v>
       </c>
       <c r="E71" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1397229652194416</v>
+        <v>0.1463187968029696</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1387483593490389</v>
+        <v>0.1461444704069031</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5246053853296193</v>
+        <v>0.5088207985143919</v>
       </c>
       <c r="E72" t="n">
-        <v>0.562152133580705</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1411900320912109</v>
+        <v>0.1472643280730528</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1389002866215176</v>
+        <v>0.1458995673391554</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5222841225626741</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E73" t="n">
-        <v>0.562152133580705</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1404470996383358</v>
+        <v>0.1467618530287462</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1382511076000002</v>
+        <v>0.1456375196576118</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5139275766016713</v>
+        <v>0.5013927576601671</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5658627087198516</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1415237446918207</v>
+        <v>0.1476644878001774</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1389455927742852</v>
+        <v>0.1465166459480921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5190343546889508</v>
+        <v>0.5129990714948932</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5640074211502782</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1397206577308038</v>
+        <v>0.1456974490600474</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1390567049384117</v>
+        <v>0.1460620529121823</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5269266480965645</v>
+        <v>0.5153203342618384</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.14001025084187</v>
+        <v>0.1464782856843051</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1376282042927212</v>
+        <v>0.1441992438501782</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5334261838440112</v>
+        <v>0.5227483751160631</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5658627087198516</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1384746511192883</v>
+        <v>0.1450860412681804</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1392783530884319</v>
+        <v>0.1451284562548002</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5250696378830083</v>
+        <v>0.5088207985143919</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1409950247582267</v>
+        <v>0.1475688990424661</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1396389860245917</v>
+        <v>0.1450734850433138</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5204271123491179</v>
+        <v>0.5153203342618384</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1387443472357357</v>
+        <v>0.1451049214776824</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1391777934299575</v>
+        <v>0.1459447534547912</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5269266480965645</v>
+        <v>0.5194986072423399</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5677179962894249</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1401803589919034</v>
+        <v>0.14656967603985</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1378454971644613</v>
+        <v>0.1457473842634095</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5292479108635098</v>
+        <v>0.5153203342618384</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5658627087198516</v>
+        <v>0.5677179962894249</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1399801362525014</v>
+        <v>0.1461785453207353</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1393123235967424</v>
+        <v>0.1457496558626493</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5190343546889508</v>
+        <v>0.531104921077066</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1400335010360269</v>
+        <v>0.1460307095857228</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1391451325681475</v>
+        <v>0.1455133035778999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5162488393686165</v>
+        <v>0.5120705663881151</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.138976118143867</v>
+        <v>0.145605944973581</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1383169550034735</v>
+        <v>0.1453449270791478</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5306406685236769</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.5565862708719852</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1404549082850709</v>
+        <v>0.1465429144308847</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1376019302341673</v>
+        <v>0.1453599938087993</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5273909006499535</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1400719981859712</v>
+        <v>0.146759571178871</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1382004511025217</v>
+        <v>0.1450584969586796</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5167130919220055</v>
+        <v>0.5185701021355618</v>
       </c>
       <c r="E86" t="n">
-        <v>0.562152133580705</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1385828883332365</v>
+        <v>0.1450009398600634</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1377873478664292</v>
+        <v>0.1445076821578873</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5329619312906221</v>
+        <v>0.5241411327762303</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1402775522540597</v>
+        <v>0.1463699958780233</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1398084776269065</v>
+        <v>0.1454375435908636</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5255338904363974</v>
+        <v>0.5218198700092851</v>
       </c>
       <c r="E88" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1381264990743469</v>
+        <v>0.1439936248695149</v>
       </c>
       <c r="C89" t="n">
-        <v>0.139308845003446</v>
+        <v>0.1436166821254624</v>
       </c>
       <c r="D89" t="n">
-        <v>0.541782729805014</v>
+        <v>0.5338904363974002</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.5695732838589982</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1392246708273888</v>
+        <v>0.1452576603521319</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1401644282870823</v>
+        <v>0.1446285711394416</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5334261838440112</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E90" t="n">
-        <v>0.562152133580705</v>
+        <v>0.5732838589981447</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1397573025349308</v>
+        <v>0.1457285048330531</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1384569489293628</v>
+        <v>0.1447856235835287</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5157845868152274</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5343228200371057</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1383197482894449</v>
+        <v>0.1443486463497667</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1375455343061023</v>
+        <v>0.1437357639273008</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5232126276694522</v>
+        <v>0.5218198700092851</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5695732838589982</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1388819178237635</v>
+        <v>0.1449828888563549</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1399673339393404</v>
+        <v>0.1461909090479215</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5297121634168988</v>
+        <v>0.5222841225626741</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5640074211502782</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1387400982134482</v>
+        <v>0.1453279916416196</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1378626310163074</v>
+        <v>0.144721292787128</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5227483751160631</v>
+        <v>0.5241411327762303</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1392626069924411</v>
+        <v>0.1459649652242661</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1373985467685593</v>
+        <v>0.1443023880322774</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5264623955431755</v>
+        <v>0.5287836583101208</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5788497217068646</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1382997647366103</v>
+        <v>0.1440162439556683</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1378788045710987</v>
+        <v>0.1454190769129329</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5278551532033426</v>
+        <v>0.5218198700092851</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5640074211502782</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1402088848545271</v>
+        <v>0.1461524678503766</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1391212542851766</v>
+        <v>0.1474368986156252</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5278551532033426</v>
+        <v>0.5259981429897864</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5565862708719852</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1390704733922201</v>
+        <v>0.1453128647716606</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1388661422663265</v>
+        <v>0.1462357491254807</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5259981429897864</v>
+        <v>0.5199628597957289</v>
       </c>
       <c r="E98" t="n">
-        <v>0.562152133580705</v>
+        <v>0.5807050092764379</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1394002183395273</v>
+        <v>0.1454051132587826</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1384884822699759</v>
+        <v>0.145631337331401</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5148560817084494</v>
+        <v>0.5176415970287837</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1398072347921484</v>
+        <v>0.145596317070372</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1395551918281449</v>
+        <v>0.1462846630149418</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5324976787372331</v>
+        <v>0.5222841225626741</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5343228200371057</v>
+        <v>0.5046382189239332</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.139445822685957</v>
+        <v>0.14497901017175</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1389923128816817</v>
+        <v>0.1456625585754713</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5236768802228412</v>
+        <v>0.5232126276694522</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1393437414046596</v>
+        <v>0.146355973008801</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1396795428461499</v>
+        <v>0.1464204034871525</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5357474466109564</v>
+        <v>0.5255338904363974</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1395199307624032</v>
+        <v>0.1466179757433779</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1396057547794448</v>
+        <v>0.1450984279314677</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5255338904363974</v>
+        <v>0.5204271123491179</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5658627087198516</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1376661965075661</v>
+        <v>0.144188523730811</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1397897940542963</v>
+        <v>0.1457997154858377</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5357474466109564</v>
+        <v>0.520891364902507</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5083487940630798</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1379403509199619</v>
+        <v>0.1441732022692175</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1390854898426268</v>
+        <v>0.1485913958814409</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5301764159702879</v>
+        <v>0.5264623955431755</v>
       </c>
       <c r="E105" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1379633289487923</v>
+        <v>0.1446363494238433</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1398107070061896</v>
+        <v>0.146721805135409</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5227483751160631</v>
+        <v>0.5153203342618384</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5213358070500927</v>
+        <v>0.4860853432282004</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1386912007103948</v>
+        <v>0.1448832112638389</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1379303874240981</v>
+        <v>0.1471192033754455</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5403899721448467</v>
+        <v>0.531569173630455</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5677179962894249</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.138979568858357</v>
+        <v>0.1449806677067981</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1384632777836588</v>
+        <v>0.1454732343554497</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5255338904363974</v>
+        <v>0.5153203342618384</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5361781076066791</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1385716846322312</v>
+        <v>0.1448954236419762</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1401783087187343</v>
+        <v>0.1466078592671288</v>
       </c>
       <c r="D109" t="n">
         <v>0.5269266480965645</v>
       </c>
       <c r="E109" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1381423078915652</v>
+        <v>0.1441966821165646</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1390314830674065</v>
+        <v>0.1471756365564134</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5301764159702879</v>
+        <v>0.5181058495821727</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.4972170686456401</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1382040252142093</v>
+        <v>0.1443375099231215</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1388103746705585</v>
+        <v>0.1452603985865911</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5287836583101208</v>
+        <v>0.5139275766016713</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5677179962894249</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1386590488255024</v>
+        <v>0.144492678125115</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1379752730329832</v>
+        <v>0.1449772583113776</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5301764159702879</v>
+        <v>0.5292479108635098</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5695732838589982</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1383790614850381</v>
+        <v>0.1447413327062831</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1396031570103433</v>
+        <v>0.1447318188018269</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5278551532033426</v>
+        <v>0.5120705663881151</v>
       </c>
       <c r="E113" t="n">
-        <v>0.562152133580705</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.137838152839857</v>
+        <v>0.1441082108546706</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1383265124426948</v>
+        <v>0.1466529568036397</v>
       </c>
       <c r="D114" t="n">
         <v>0.5352831940575673</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1393269392497399</v>
+        <v>0.1456567975966369</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1396839660074976</v>
+        <v>0.1453240604864227</v>
       </c>
       <c r="D115" t="n">
-        <v>0.532033426183844</v>
+        <v>0.5246053853296193</v>
       </c>
       <c r="E115" t="n">
-        <v>0.575139146567718</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1375467487994362</v>
+        <v>0.1424843874924323</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1384702920913696</v>
+        <v>0.1458183129628499</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5338904363974002</v>
+        <v>0.531104921077066</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5677179962894249</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1384627130978248</v>
+        <v>0.144744838204454</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1388419535424974</v>
+        <v>0.1459649155537287</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5399257195914577</v>
+        <v>0.5292479108635098</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5640074211502782</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1377248211818583</v>
+        <v>0.1436786239638048</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1391420678959953</v>
+        <v>0.1477054647273487</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5399257195914577</v>
+        <v>0.521355617455896</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1371663962216938</v>
+        <v>0.1437100435004515</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1385644310050541</v>
+        <v>0.145615070230431</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5413184772516249</v>
+        <v>0.5292479108635098</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1367264166474342</v>
+        <v>0.1430466444615056</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1380564644932747</v>
+        <v>0.1461860860387484</v>
       </c>
       <c r="D120" t="n">
-        <v>0.542711234911792</v>
+        <v>0.5264623955431755</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1381061002612114</v>
+        <v>0.1446531029308543</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1406911032067405</v>
+        <v>0.1461289789941576</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5278551532033426</v>
+        <v>0.521355617455896</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5380333951762524</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1370859983212808</v>
+        <v>0.1432170054930098</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1390517445074188</v>
+        <v>0.1456638135843807</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5362116991643454</v>
+        <v>0.5306406685236769</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="123">
@@ -2522,13 +2522,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1377198753111503</v>
+        <v>0.1432715165702736</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1384352263477114</v>
+        <v>0.1460396399100622</v>
       </c>
       <c r="D123" t="n">
-        <v>0.541782729805014</v>
+        <v>0.531104921077066</v>
       </c>
       <c r="E123" t="n">
         <v>0.5640074211502782</v>
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1367241998805719</v>
+        <v>0.1426167019149836</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1389065956075986</v>
+        <v>0.1471132255262799</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5473537604456824</v>
+        <v>0.5371402042711235</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5213358070500927</v>
+        <v>0.4953617810760668</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1373307168045465</v>
+        <v>0.1437545260962318</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1414718271957504</v>
+        <v>0.1480931962529818</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5403899721448467</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E125" t="n">
-        <v>0.562152133580705</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1381093281156877</v>
+        <v>0.1433326641426367</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1392123210761282</v>
+        <v>0.1456538248393271</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5278551532033426</v>
+        <v>0.5157845868152274</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5398886827458256</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1379622455467196</v>
+        <v>0.1431439472910236</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1382587941156493</v>
+        <v>0.1465870638688405</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5371402042711235</v>
+        <v>0.5338904363974002</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1358217055744985</v>
+        <v>0.1423466297633508</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1392412434021632</v>
+        <v>0.1461225185129378</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5408542246982359</v>
+        <v>0.5371402042711235</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1373786838615642</v>
+        <v>0.1435044504263822</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1407334928711255</v>
+        <v>0.1465275146894985</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5408542246982359</v>
+        <v>0.5264623955431755</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5046382189239332</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1366738549926702</v>
+        <v>0.1427956306759049</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1399158272478316</v>
+        <v>0.1491039486394988</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5389972144846796</v>
+        <v>0.5324976787372331</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5732838589981447</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1352939441361848</v>
+        <v>0.1419205126516959</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1393216227491697</v>
+        <v>0.1469780289464527</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5431754874651811</v>
+        <v>0.5403899721448467</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5640074211502782</v>
+        <v>0.5769944341372912</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1367964845369844</v>
+        <v>0.142953571589554</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1378427884644932</v>
+        <v>0.1457374062803057</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5278551532033426</v>
+        <v>0.5199628597957289</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.562152133580705</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1372984836206717</v>
+        <v>0.1433535930426682</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1374972355034616</v>
+        <v>0.145638558599684</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5394614670380687</v>
+        <v>0.5232126276694522</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.5139146567717996</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1372949752737494</v>
+        <v>0.1432281853083302</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1414845105674532</v>
+        <v>0.1512705658872922</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5413184772516249</v>
+        <v>0.5301764159702879</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1375112242120154</v>
+        <v>0.1434682629564229</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1392186971174346</v>
+        <v>0.1497864441739188</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5413184772516249</v>
+        <v>0.5380687093779016</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5640074211502782</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1363748734926476</v>
+        <v>0.1426415105952936</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1398572135302756</v>
+        <v>0.1475418259700139</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5297121634168988</v>
+        <v>0.5250696378830083</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1359812520882663</v>
+        <v>0.1414544163819622</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1389798944195112</v>
+        <v>0.1463192684782876</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5380687093779016</v>
+        <v>0.5394614670380687</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5695732838589982</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1369633893756305</v>
+        <v>0.1426823816316969</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1394271817472246</v>
+        <v>0.1456244273318185</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5543175487465181</v>
+        <v>0.5510677808727948</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5695732838589982</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1368034381200285</v>
+        <v>0.1417242328033728</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1400999211602741</v>
+        <v>0.1472020472089449</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5376044568245125</v>
+        <v>0.5343546889507892</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5343228200371057</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1359286742175327</v>
+        <v>0.1415935820516418</v>
       </c>
       <c r="C140" t="n">
-        <v>0.139860643280877</v>
+        <v>0.1457931465572781</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5348189415041783</v>
+        <v>0.532033426183844</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5361781076066791</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1357522617806406</v>
+        <v>0.1417158443261595</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1395077448752191</v>
+        <v>0.1464958993924989</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5371402042711235</v>
+        <v>0.5348189415041783</v>
       </c>
       <c r="E141" t="n">
-        <v>0.575139146567718</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1362892544883139</v>
+        <v>0.1427314022884649</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1374473977420065</v>
+        <v>0.1453070979979303</v>
       </c>
       <c r="D142" t="n">
-        <v>0.532033426183844</v>
+        <v>0.5259981429897864</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="143">
@@ -2862,13 +2862,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1367778409929837</v>
+        <v>0.1426922380924225</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1397217586636543</v>
+        <v>0.1467762887477875</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5352831940575673</v>
+        <v>0.5380687093779016</v>
       </c>
       <c r="E143" t="n">
         <v>0.5361781076066791</v>
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1355489435441354</v>
+        <v>0.141554143937195</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1393072679638863</v>
+        <v>0.1458509804473983</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5450324976787372</v>
+        <v>0.5324976787372331</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1365247890353203</v>
+        <v>0.1436677581685431</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1401928067207336</v>
+        <v>0.1469396087858412</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5329619312906221</v>
+        <v>0.5139275766016713</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5658627087198516</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="146">
@@ -2913,13 +2913,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1368331652792061</v>
+        <v>0.1417727746507701</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1386279828018612</v>
+        <v>0.145763475033972</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5403899721448467</v>
+        <v>0.5352831940575673</v>
       </c>
       <c r="E146" t="n">
         <v>0.5714285714285714</v>
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1351923300501178</v>
+        <v>0.1403910397168468</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1389769663413366</v>
+        <v>0.147119328379631</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5445682451253482</v>
+        <v>0.5431754874651811</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5361781076066791</v>
+        <v>0.4953617810760668</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1355586845208617</v>
+        <v>0.1417597977115828</v>
       </c>
       <c r="C148" t="n">
-        <v>0.143329129450851</v>
+        <v>0.1482256493634648</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5403899721448467</v>
+        <v>0.5431754874651811</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1365667897112229</v>
+        <v>0.1426929741659585</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1395908825927311</v>
+        <v>0.1467559263110161</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5348189415041783</v>
+        <v>0.5218198700092851</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5269016697588126</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1348407952224507</v>
+        <v>0.140779633732403</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1391408849093649</v>
+        <v>0.1466461271047592</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5459610027855153</v>
+        <v>0.5371402042711235</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1365869336706751</v>
+        <v>0.1427283466738813</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1406124722626474</v>
+        <v>0.1463110074400902</v>
       </c>
       <c r="D151" t="n">
-        <v>0.541782729805014</v>
+        <v>0.5352831940575673</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5565862708719852</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1370574128540123</v>
+        <v>0.1435862398322891</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1379391658637259</v>
+        <v>0.1460212858186828</v>
       </c>
       <c r="D152" t="n">
-        <v>0.541782729805014</v>
+        <v>0.5362116991643454</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
   </sheetData>
